--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Kepler Parameter 6" sheetId="9" r:id="rId8"/>
     <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId9"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId10"/>
+    <sheet name="Autoscaling" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="286">
   <si>
     <t>DT</t>
   </si>
@@ -1186,12 +1187,48 @@
 MA = L  - ϖ
 MA = L - Ω - ω</t>
   </si>
+  <si>
+    <t>log_scaled_list</t>
+  </si>
+  <si>
+    <t>log_list</t>
+  </si>
+  <si>
+    <t>radius_list_in</t>
+  </si>
+  <si>
+    <t>log 10</t>
+  </si>
+  <si>
+    <t>* p.min_radius / min(log_list)</t>
+  </si>
+  <si>
+    <t>scaled log10 lineary, so the smallest circle has the desired radius</t>
+  </si>
+  <si>
+    <t>p.max_radius</t>
+  </si>
+  <si>
+    <t>max faktor</t>
+  </si>
+  <si>
+    <t>deltas</t>
+  </si>
+  <si>
+    <t>max delta</t>
+  </si>
+  <si>
+    <t>scaled deltas + 1</t>
+  </si>
+  <si>
+    <t>p.min_radius</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000000E+00"/>
@@ -1199,8 +1236,9 @@
     <numFmt numFmtId="167" formatCode="0.00000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1348,22 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1506,7 +1560,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1667,6 +1721,36 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5588,6 +5672,230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="81" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="81" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="79" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33" customHeight="1">
+      <c r="A1" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79">
+        <v>100</v>
+      </c>
+      <c r="E1" s="79">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="79">
+        <v>10000</v>
+      </c>
+      <c r="G1" s="79">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
+      <c r="A2" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="84">
+        <f>LOG10(D1)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="84">
+        <f t="shared" ref="E2:G2" si="0">LOG10(E1)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G2" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="83">
+        <f>D2*$C$4/MIN($D$2:$F$2)</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="83">
+        <f>E2*$C$4/MIN($D$2:$F$2)</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="83">
+        <f>F2*$C$4/MIN($D$2:$F$2)</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="83">
+        <f>G2*$C$4/MIN($D$2:$F$2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" customHeight="1">
+      <c r="B4" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1">
+      <c r="B5" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" customHeight="1">
+      <c r="B6" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="85">
+        <f>$C$5/MAX($D$3:$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1">
+      <c r="B7" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="83">
+        <f>D3-MIN($D$3:$F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="83">
+        <f t="shared" ref="E7:F7" si="1">E3-MIN($D$3:$F$3)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="83">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="83">
+        <f t="shared" ref="G7" si="2">G3-MIN($D$3:$F$3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1">
+      <c r="B8" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="83">
+        <v>1</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1">
+      <c r="B9" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="86">
+        <f>MAX($D$7:$F$7)</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1"/>
+    <row r="11" spans="1:7" ht="33" customHeight="1">
+      <c r="D11" s="84">
+        <f>D12/D3</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84">
+        <f>G12/G3</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1">
+      <c r="D12" s="79">
+        <v>10</v>
+      </c>
+      <c r="G12" s="79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33" customHeight="1"/>
+    <row r="14" spans="1:7" ht="33" customHeight="1"/>
+    <row r="15" spans="1:7" ht="33" customHeight="1"/>
+    <row r="16" spans="1:7" ht="33" customHeight="1"/>
+    <row r="17" ht="33" customHeight="1"/>
+    <row r="18" ht="33" customHeight="1"/>
+    <row r="19" ht="33" customHeight="1"/>
+    <row r="20" ht="33" customHeight="1"/>
+    <row r="21" ht="33" customHeight="1"/>
+    <row r="22" ht="33" customHeight="1"/>
+    <row r="23" ht="33" customHeight="1"/>
+    <row r="24" ht="33" customHeight="1"/>
+    <row r="25" ht="33" customHeight="1"/>
+    <row r="26" ht="33" customHeight="1"/>
+    <row r="27" ht="33" customHeight="1"/>
+    <row r="28" ht="33" customHeight="1"/>
+    <row r="29" ht="33" customHeight="1"/>
+    <row r="30" ht="33" customHeight="1"/>
+    <row r="31" ht="33" customHeight="1"/>
+    <row r="32" ht="33" customHeight="1"/>
+    <row r="33" ht="33" customHeight="1"/>
+    <row r="34" ht="33" customHeight="1"/>
+    <row r="35" ht="33" customHeight="1"/>
+    <row r="36" ht="33" customHeight="1"/>
+    <row r="37" ht="33" customHeight="1"/>
+    <row r="38" ht="33" customHeight="1"/>
+    <row r="39" ht="33" customHeight="1"/>
+    <row r="40" ht="33" customHeight="1"/>
+    <row r="41" ht="33" customHeight="1"/>
+    <row r="42" ht="33" customHeight="1"/>
+    <row r="43" ht="33" customHeight="1"/>
+    <row r="44" ht="33" customHeight="1"/>
+    <row r="45" ht="33" customHeight="1"/>
+    <row r="46" ht="33" customHeight="1"/>
+    <row r="47" ht="33" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O51"/>
@@ -7506,7 +7814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Kepler Parameter 6" sheetId="9" r:id="rId8"/>
     <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId9"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId10"/>
-    <sheet name="Autoscaling" sheetId="13" r:id="rId11"/>
+    <sheet name="calc_patch_radii" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="291">
   <si>
     <t>DT</t>
   </si>
@@ -1188,24 +1188,12 @@
 MA = L - Ω - ω</t>
   </si>
   <si>
-    <t>log_scaled_list</t>
-  </si>
-  <si>
-    <t>log_list</t>
-  </si>
-  <si>
-    <t>radius_list_in</t>
-  </si>
-  <si>
     <t>log 10</t>
   </si>
   <si>
     <t>* p.min_radius / min(log_list)</t>
   </si>
   <si>
-    <t>scaled log10 lineary, so the smallest circle has the desired radius</t>
-  </si>
-  <si>
     <t>p.max_radius</t>
   </si>
   <si>
@@ -1218,10 +1206,37 @@
     <t>max delta</t>
   </si>
   <si>
-    <t>scaled deltas + 1</t>
-  </si>
-  <si>
     <t>p.min_radius</t>
+  </si>
+  <si>
+    <t>scaled_logs</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>radii_in</t>
+  </si>
+  <si>
+    <t>radii_out</t>
+  </si>
+  <si>
+    <t>scaled_logs * factor</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>min delta</t>
+  </si>
+  <si>
+    <t>max scaled log</t>
+  </si>
+  <si>
+    <t>min scaled log</t>
+  </si>
+  <si>
+    <t>ln</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1575,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1751,6 +1766,9 @@
     </xf>
     <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5674,208 +5692,364 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="81" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="79" customWidth="1"/>
     <col min="5" max="6" width="12.28515625" style="79" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" ht="33" customHeight="1">
+      <c r="B1" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1">
+      <c r="B2" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79">
-        <v>100</v>
-      </c>
-      <c r="E1" s="79">
-        <v>1000</v>
-      </c>
-      <c r="F1" s="79">
-        <v>10000</v>
-      </c>
-      <c r="G1" s="79">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="C2" s="84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="79">
+        <v>12</v>
+      </c>
+      <c r="F3" s="79">
+        <v>13</v>
+      </c>
+      <c r="G3" s="79">
+        <v>33333</v>
+      </c>
+      <c r="K3" s="79">
+        <f>G3/D3</f>
+        <v>30302.727272727272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1">
+      <c r="A4" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="87">
+        <f>LOG10(D3)</f>
+        <v>4.1392685158225077E-2</v>
+      </c>
+      <c r="E4" s="87">
+        <f t="shared" ref="E4:G4" si="0">LOG10(E3)</f>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="F4" s="87">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="G4" s="87">
+        <f t="shared" si="0"/>
+        <v>4.5228744023138034</v>
+      </c>
+      <c r="K4" s="79">
+        <f>G4/D4</f>
+        <v>109.26748011212483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1">
+      <c r="A5" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="83">
+        <f>D4*$C$1/MIN($D$4:$Z$4)</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="83">
+        <f>E4*$C$1/MIN($D$4:$Z$4)</f>
+        <v>260.7178640193103</v>
+      </c>
+      <c r="F5" s="83">
+        <f>F4*$C$1/MIN($D$4:$Z$4)</f>
+        <v>269.11599188328734</v>
+      </c>
+      <c r="G5" s="83">
+        <f>G4*$C$1/MIN($D$4:$Z$4)</f>
+        <v>1092.6748011212483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="86">
+        <f>MIN($D$5:$Z$5)</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="86">
+        <f>MAX($D$5:$Z$5)</f>
+        <v>1092.6748011212483</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1">
+      <c r="B8" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84">
-        <f>LOG10(D1)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="84">
-        <f t="shared" ref="E2:G2" si="0">LOG10(E1)</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G2" s="84">
-        <f t="shared" si="0"/>
+      <c r="C8" s="85">
+        <f>$C$2/$C$7</f>
+        <v>0.18303707543614073</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1">
+      <c r="B9" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="83">
+        <f>D5-$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="83">
+        <f t="shared" ref="E9:G9" si="1">E5-$C$6</f>
+        <v>250.7178640193103</v>
+      </c>
+      <c r="F9" s="83">
+        <f t="shared" si="1"/>
+        <v>259.11599188328734</v>
+      </c>
+      <c r="G9" s="83">
+        <f t="shared" si="1"/>
+        <v>1082.6748011212483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1">
+      <c r="B10" s="81" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="86">
+        <f>MIN($D$9:$Z$9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1">
+      <c r="B11" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="86">
+        <f>MAX($D$9:$Z$9)</f>
+        <v>1082.6748011212483</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1">
+      <c r="A12" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="84">
+        <f>1+(D9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="84">
+        <f>1+(E9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
+        <v>0.81081373722054395</v>
+      </c>
+      <c r="F12" s="84">
+        <f>1+(F9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
+        <v>0.80447669206764072</v>
+      </c>
+      <c r="G12" s="84">
+        <f>1+(G9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
+        <v>0.18303707543614078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1">
+      <c r="A13" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="87">
+        <f>D5*D12</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="84">
+        <f>E5*E12</f>
+        <v>211.39362568565457</v>
+      </c>
+      <c r="F13" s="84">
+        <f>F5*F12</f>
+        <v>216.49754293276905</v>
+      </c>
+      <c r="G13" s="87">
+        <f>G5*G12</f>
+        <v>200.00000000000006</v>
+      </c>
+      <c r="K13" s="79">
+        <f>G13/D13</f>
+        <v>20.000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1"/>
+    <row r="15" spans="1:11" ht="33" customHeight="1">
+      <c r="D15" s="79">
+        <f>D13/D4</f>
+        <v>241.58857928096785</v>
+      </c>
+      <c r="E15" s="79">
+        <f t="shared" ref="E15:G15" si="2">E13/E4</f>
+        <v>195.8833388366032</v>
+      </c>
+      <c r="F15" s="79">
+        <f t="shared" si="2"/>
+        <v>194.35238110127401</v>
+      </c>
+      <c r="G15" s="79">
+        <f t="shared" si="2"/>
+        <v>44.219667010360588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1">
+      <c r="B16" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="82" t="str">
+        <f>A3</f>
+        <v>radii_in</v>
+      </c>
+      <c r="D16" s="79">
+        <f>LN(D3)</f>
+        <v>9.5310179804324935E-2</v>
+      </c>
+      <c r="E16" s="79">
+        <f t="shared" ref="E16:G16" si="3">LN(E3)</f>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="F16" s="79">
+        <f t="shared" si="3"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="G16" s="79">
+        <f t="shared" si="3"/>
+        <v>10.414303176252119</v>
+      </c>
+      <c r="K16" s="79">
+        <f>G16/D16</f>
+        <v>109.26748011212486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="33" customHeight="1">
+      <c r="B17" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="82">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="83">
-        <f>D2*$C$4/MIN($D$2:$F$2)</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="83">
-        <f>E2*$C$4/MIN($D$2:$F$2)</f>
-        <v>15</v>
-      </c>
-      <c r="F3" s="83">
-        <f>F2*$C$4/MIN($D$2:$F$2)</f>
-        <v>20</v>
-      </c>
-      <c r="G3" s="83">
-        <f>G2*$C$4/MIN($D$2:$F$2)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1">
-      <c r="B4" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1">
-      <c r="B5" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1">
-      <c r="B6" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="85">
-        <f>$C$5/MAX($D$3:$F$3)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1">
-      <c r="B7" s="81" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="83">
-        <f>D3-MIN($D$3:$F$3)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="83">
-        <f t="shared" ref="E7:F7" si="1">E3-MIN($D$3:$F$3)</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="83">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="83">
-        <f t="shared" ref="G7" si="2">G3-MIN($D$3:$F$3)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1">
-      <c r="B8" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" s="83">
-        <v>1</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-    </row>
-    <row r="9" spans="1:7" ht="33" customHeight="1">
-      <c r="B9" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="86">
-        <f>MAX($D$7:$F$7)</f>
-        <v>10</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-    </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1"/>
-    <row r="11" spans="1:7" ht="33" customHeight="1">
-      <c r="D11" s="84">
-        <f>D12/D3</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84">
-        <f>G12/G3</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1">
-      <c r="D12" s="79">
-        <v>10</v>
-      </c>
-      <c r="G12" s="79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1"/>
-    <row r="14" spans="1:7" ht="33" customHeight="1"/>
-    <row r="15" spans="1:7" ht="33" customHeight="1"/>
-    <row r="16" spans="1:7" ht="33" customHeight="1"/>
-    <row r="17" ht="33" customHeight="1"/>
-    <row r="18" ht="33" customHeight="1"/>
-    <row r="19" ht="33" customHeight="1"/>
-    <row r="20" ht="33" customHeight="1"/>
-    <row r="21" ht="33" customHeight="1"/>
-    <row r="22" ht="33" customHeight="1"/>
-    <row r="23" ht="33" customHeight="1"/>
-    <row r="24" ht="33" customHeight="1"/>
-    <row r="25" ht="33" customHeight="1"/>
-    <row r="26" ht="33" customHeight="1"/>
-    <row r="27" ht="33" customHeight="1"/>
-    <row r="28" ht="33" customHeight="1"/>
-    <row r="29" ht="33" customHeight="1"/>
-    <row r="30" ht="33" customHeight="1"/>
-    <row r="31" ht="33" customHeight="1"/>
-    <row r="32" ht="33" customHeight="1"/>
+      <c r="D17" s="79">
+        <f>LN($C$17)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="E17" s="79">
+        <f t="shared" ref="E17:G17" si="4">LN($C$17)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="F17" s="79">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G17" s="79">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="33" customHeight="1">
+      <c r="B18" s="81" t="str">
+        <f>"log zur Basis "&amp;C17</f>
+        <v>log zur Basis 5</v>
+      </c>
+      <c r="D18" s="79">
+        <f>D16/D17</f>
+        <v>5.9219544331585071E-2</v>
+      </c>
+      <c r="E18" s="79">
+        <f t="shared" ref="E18:G18" si="5">E16/E17</f>
+        <v>1.5439593106327716</v>
+      </c>
+      <c r="F18" s="79">
+        <f t="shared" si="5"/>
+        <v>1.5936926411670824</v>
+      </c>
+      <c r="G18" s="79">
+        <f t="shared" si="5"/>
+        <v>6.470770382500568</v>
+      </c>
+      <c r="K18" s="79">
+        <f>G18/D18</f>
+        <v>109.26748011212486</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="33" customHeight="1"/>
+    <row r="20" spans="2:11" ht="33" customHeight="1"/>
+    <row r="21" spans="2:11" ht="33" customHeight="1"/>
+    <row r="22" spans="2:11" ht="33" customHeight="1"/>
+    <row r="23" spans="2:11" ht="33" customHeight="1"/>
+    <row r="24" spans="2:11" ht="33" customHeight="1"/>
+    <row r="25" spans="2:11" ht="33" customHeight="1"/>
+    <row r="26" spans="2:11" ht="33" customHeight="1"/>
+    <row r="27" spans="2:11" ht="33" customHeight="1"/>
+    <row r="28" spans="2:11" ht="33" customHeight="1"/>
+    <row r="29" spans="2:11" ht="33" customHeight="1"/>
+    <row r="30" spans="2:11" ht="33" customHeight="1"/>
+    <row r="31" spans="2:11" ht="33" customHeight="1"/>
+    <row r="32" spans="2:11" ht="33" customHeight="1"/>
     <row r="33" ht="33" customHeight="1"/>
     <row r="34" ht="33" customHeight="1"/>
     <row r="35" ht="33" customHeight="1"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,13 @@
     <sheet name="Kepler Parameter 6" sheetId="9" r:id="rId8"/>
     <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId9"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId10"/>
-    <sheet name="calc_patch_radii" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="274">
   <si>
     <t>DT</t>
   </si>
@@ -1187,63 +1186,12 @@
 MA = L  - ϖ
 MA = L - Ω - ω</t>
   </si>
-  <si>
-    <t>log 10</t>
-  </si>
-  <si>
-    <t>* p.min_radius / min(log_list)</t>
-  </si>
-  <si>
-    <t>p.max_radius</t>
-  </si>
-  <si>
-    <t>max faktor</t>
-  </si>
-  <si>
-    <t>deltas</t>
-  </si>
-  <si>
-    <t>max delta</t>
-  </si>
-  <si>
-    <t>p.min_radius</t>
-  </si>
-  <si>
-    <t>scaled_logs</t>
-  </si>
-  <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t>radii_in</t>
-  </si>
-  <si>
-    <t>radii_out</t>
-  </si>
-  <si>
-    <t>scaled_logs * factor</t>
-  </si>
-  <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t>min delta</t>
-  </si>
-  <si>
-    <t>max scaled log</t>
-  </si>
-  <si>
-    <t>min scaled log</t>
-  </si>
-  <si>
-    <t>ln</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000000E+00"/>
@@ -1251,9 +1199,8 @@
     <numFmt numFmtId="167" formatCode="0.00000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,22 +1310,6 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1575,7 +1506,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1736,39 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5611,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5685,386 +5583,6 @@
         <v>250</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="81" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="79" customWidth="1"/>
-    <col min="5" max="6" width="12.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="79"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1">
-      <c r="B1" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1">
-      <c r="B2" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="84">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="79">
-        <v>12</v>
-      </c>
-      <c r="F3" s="79">
-        <v>13</v>
-      </c>
-      <c r="G3" s="79">
-        <v>33333</v>
-      </c>
-      <c r="K3" s="79">
-        <f>G3/D3</f>
-        <v>30302.727272727272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="87">
-        <f>LOG10(D3)</f>
-        <v>4.1392685158225077E-2</v>
-      </c>
-      <c r="E4" s="87">
-        <f t="shared" ref="E4:G4" si="0">LOG10(E3)</f>
-        <v>1.0791812460476249</v>
-      </c>
-      <c r="F4" s="87">
-        <f t="shared" si="0"/>
-        <v>1.1139433523068367</v>
-      </c>
-      <c r="G4" s="87">
-        <f t="shared" si="0"/>
-        <v>4.5228744023138034</v>
-      </c>
-      <c r="K4" s="79">
-        <f>G4/D4</f>
-        <v>109.26748011212483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="83">
-        <f>D4*$C$1/MIN($D$4:$Z$4)</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="83">
-        <f>E4*$C$1/MIN($D$4:$Z$4)</f>
-        <v>260.7178640193103</v>
-      </c>
-      <c r="F5" s="83">
-        <f>F4*$C$1/MIN($D$4:$Z$4)</f>
-        <v>269.11599188328734</v>
-      </c>
-      <c r="G5" s="83">
-        <f>G4*$C$1/MIN($D$4:$Z$4)</f>
-        <v>1092.6748011212483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="86">
-        <f>MIN($D$5:$Z$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="86">
-        <f>MAX($D$5:$Z$5)</f>
-        <v>1092.6748011212483</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1">
-      <c r="B8" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="85">
-        <f>$C$2/$C$7</f>
-        <v>0.18303707543614073</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1">
-      <c r="B9" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="83">
-        <f>D5-$C$6</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="83">
-        <f t="shared" ref="E9:G9" si="1">E5-$C$6</f>
-        <v>250.7178640193103</v>
-      </c>
-      <c r="F9" s="83">
-        <f t="shared" si="1"/>
-        <v>259.11599188328734</v>
-      </c>
-      <c r="G9" s="83">
-        <f t="shared" si="1"/>
-        <v>1082.6748011212483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1">
-      <c r="B10" s="81" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="86">
-        <f>MIN($D$9:$Z$9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1">
-      <c r="B11" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="86">
-        <f>MAX($D$9:$Z$9)</f>
-        <v>1082.6748011212483</v>
-      </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1">
-      <c r="A12" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="84">
-        <f>1+(D9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="84">
-        <f>1+(E9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
-        <v>0.81081373722054395</v>
-      </c>
-      <c r="F12" s="84">
-        <f>1+(F9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
-        <v>0.80447669206764072</v>
-      </c>
-      <c r="G12" s="84">
-        <f>1+(G9-$C$10)/($C$11-$C$10)*($C$8-1)</f>
-        <v>0.18303707543614078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1">
-      <c r="A13" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="87">
-        <f>D5*D12</f>
-        <v>10</v>
-      </c>
-      <c r="E13" s="84">
-        <f>E5*E12</f>
-        <v>211.39362568565457</v>
-      </c>
-      <c r="F13" s="84">
-        <f>F5*F12</f>
-        <v>216.49754293276905</v>
-      </c>
-      <c r="G13" s="87">
-        <f>G5*G12</f>
-        <v>200.00000000000006</v>
-      </c>
-      <c r="K13" s="79">
-        <f>G13/D13</f>
-        <v>20.000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1"/>
-    <row r="15" spans="1:11" ht="33" customHeight="1">
-      <c r="D15" s="79">
-        <f>D13/D4</f>
-        <v>241.58857928096785</v>
-      </c>
-      <c r="E15" s="79">
-        <f t="shared" ref="E15:G15" si="2">E13/E4</f>
-        <v>195.8833388366032</v>
-      </c>
-      <c r="F15" s="79">
-        <f t="shared" si="2"/>
-        <v>194.35238110127401</v>
-      </c>
-      <c r="G15" s="79">
-        <f t="shared" si="2"/>
-        <v>44.219667010360588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" customHeight="1">
-      <c r="B16" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" s="82" t="str">
-        <f>A3</f>
-        <v>radii_in</v>
-      </c>
-      <c r="D16" s="79">
-        <f>LN(D3)</f>
-        <v>9.5310179804324935E-2</v>
-      </c>
-      <c r="E16" s="79">
-        <f t="shared" ref="E16:G16" si="3">LN(E3)</f>
-        <v>2.4849066497880004</v>
-      </c>
-      <c r="F16" s="79">
-        <f t="shared" si="3"/>
-        <v>2.5649493574615367</v>
-      </c>
-      <c r="G16" s="79">
-        <f t="shared" si="3"/>
-        <v>10.414303176252119</v>
-      </c>
-      <c r="K16" s="79">
-        <f>G16/D16</f>
-        <v>109.26748011212486</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="33" customHeight="1">
-      <c r="B17" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="82">
-        <v>5</v>
-      </c>
-      <c r="D17" s="79">
-        <f>LN($C$17)</f>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="E17" s="79">
-        <f t="shared" ref="E17:G17" si="4">LN($C$17)</f>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="F17" s="79">
-        <f t="shared" si="4"/>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="G17" s="79">
-        <f t="shared" si="4"/>
-        <v>1.6094379124341003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="33" customHeight="1">
-      <c r="B18" s="81" t="str">
-        <f>"log zur Basis "&amp;C17</f>
-        <v>log zur Basis 5</v>
-      </c>
-      <c r="D18" s="79">
-        <f>D16/D17</f>
-        <v>5.9219544331585071E-2</v>
-      </c>
-      <c r="E18" s="79">
-        <f t="shared" ref="E18:G18" si="5">E16/E17</f>
-        <v>1.5439593106327716</v>
-      </c>
-      <c r="F18" s="79">
-        <f t="shared" si="5"/>
-        <v>1.5936926411670824</v>
-      </c>
-      <c r="G18" s="79">
-        <f t="shared" si="5"/>
-        <v>6.470770382500568</v>
-      </c>
-      <c r="K18" s="79">
-        <f>G18/D18</f>
-        <v>109.26748011212486</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="33" customHeight="1"/>
-    <row r="20" spans="2:11" ht="33" customHeight="1"/>
-    <row r="21" spans="2:11" ht="33" customHeight="1"/>
-    <row r="22" spans="2:11" ht="33" customHeight="1"/>
-    <row r="23" spans="2:11" ht="33" customHeight="1"/>
-    <row r="24" spans="2:11" ht="33" customHeight="1"/>
-    <row r="25" spans="2:11" ht="33" customHeight="1"/>
-    <row r="26" spans="2:11" ht="33" customHeight="1"/>
-    <row r="27" spans="2:11" ht="33" customHeight="1"/>
-    <row r="28" spans="2:11" ht="33" customHeight="1"/>
-    <row r="29" spans="2:11" ht="33" customHeight="1"/>
-    <row r="30" spans="2:11" ht="33" customHeight="1"/>
-    <row r="31" spans="2:11" ht="33" customHeight="1"/>
-    <row r="32" spans="2:11" ht="33" customHeight="1"/>
-    <row r="33" ht="33" customHeight="1"/>
-    <row r="34" ht="33" customHeight="1"/>
-    <row r="35" ht="33" customHeight="1"/>
-    <row r="36" ht="33" customHeight="1"/>
-    <row r="37" ht="33" customHeight="1"/>
-    <row r="38" ht="33" customHeight="1"/>
-    <row r="39" ht="33" customHeight="1"/>
-    <row r="40" ht="33" customHeight="1"/>
-    <row r="41" ht="33" customHeight="1"/>
-    <row r="42" ht="33" customHeight="1"/>
-    <row r="43" ht="33" customHeight="1"/>
-    <row r="44" ht="33" customHeight="1"/>
-    <row r="45" ht="33" customHeight="1"/>
-    <row r="46" ht="33" customHeight="1"/>
-    <row r="47" ht="33" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="275">
   <si>
     <t>DT</t>
   </si>
@@ -293,22 +293,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>BJD</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TDB</t>
-    </r>
-  </si>
-  <si>
     <t>R_stellar</t>
   </si>
   <si>
@@ -526,9 +510,6 @@
 argument of the pericenter/perifocus</t>
   </si>
   <si>
-    <t>Angular distance along the plane of the orbit from the ascending node to the pericenter.</t>
-  </si>
-  <si>
     <t>l =  Ω + ω + nu
 l =  ϖ + nu</t>
   </si>
@@ -566,9 +547,6 @@
   </si>
   <si>
     <t>ϖ</t>
-  </si>
-  <si>
-    <t>Angle between the direction of periapsis and the current position of the body, as seen from the main focus of the ellipse (the point around which the object orbits).</t>
   </si>
   <si>
     <t>ν, nu, θ, f</t>
@@ -1186,6 +1164,30 @@
 MA = L  - ϖ
 MA = L - Ω - ω</t>
   </si>
+  <si>
+    <r>
+      <t>BJD</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TDB</t>
+    </r>
+  </si>
+  <si>
+    <t>Angle in the reference plane between a reference direction and the direction to the ascending node.</t>
+  </si>
+  <si>
+    <t>Angle in the plane of the orbit from the ascending node to the pericenter.</t>
+  </si>
+  <si>
+    <t>Angle in the plane of the orbit between the direction of periapsis and the current position of the body, as seen from the main focus of the ellipse (the point around which the object orbits).</t>
+  </si>
 </sst>
 </file>
 
@@ -1200,7 +1202,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,14 +1264,6 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1310,6 +1304,26 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1506,7 +1520,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1552,17 +1566,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1581,7 +1586,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1662,11 +1667,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4115,15 +4128,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>363168</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>16533</xdr:rowOff>
+      <xdr:colOff>601293</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4140,7 +4153,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="6115050"/>
+          <a:off x="342900" y="6629400"/>
           <a:ext cx="5592393" cy="3626508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4292,7 +4305,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4510,7 +4523,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4612,7 +4625,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4740,7 +4753,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4751,7 +4764,7 @@
             <a:t>Primary eclipse:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4759,10 +4772,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> planet eclipses star.</a:t>
+            <a:t>     </a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
               <a:solidFill>
@@ -4772,8 +4783,234 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Secondary eclipse: star eclipses planet.</a:t>
+            <a:t>planet eclipses star.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Secondary eclipse:     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>star eclipses planet.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5257800"/>
+          <a:ext cx="5324475" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Inclination:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>An exoplanet's Keplerian orbit (closed ellipse co-focal with the parent star) has </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>two relevant angles</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. One is the angle between the orbital plane and the line of sight to Earth (often called </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the inclination </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>). The other is the direction of the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>orbital periapse </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(usually measured as the angle in the orbital plane between the line of nodes and the periapse).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In case of transit detections, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i∼90∘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (for otherwise, there will be no ecclipse/transit), but is usually unknown for radial-velocity detections. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5509,9 +5746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -5520,67 +5755,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>246</v>
+      <c r="A1" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5748,26 +5983,26 @@
     </row>
     <row r="45" spans="1:9" ht="18">
       <c r="G45" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
       <c r="G46" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="G47" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="15:15">
@@ -5791,17 +6026,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="32" t="s">
-        <v>103</v>
+      <c r="A1" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5809,12 +6042,18 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung"/>
+    <hyperlink ref="A34" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5823,7 +6062,7 @@
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5892,891 +6131,891 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="45"/>
-    <col min="3" max="3" width="31.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="45"/>
+    <col min="1" max="1" width="11.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="42"/>
+    <col min="3" max="3" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="64"/>
-      <c r="B1" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="67" t="str">
+      <c r="B2" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="64" t="str">
         <f t="shared" ref="D2:D7" si="0">A2&amp;" = "&amp;B2&amp;"  # "&amp;C2</f>
         <v>a = 0.38709893  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="67" t="str">
+      <c r="B3" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="64" t="str">
         <f t="shared" si="0"/>
         <v>e = 0.20563069  # [1] eccentricity</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="67" t="str">
+      <c r="B4" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="64" t="str">
         <f t="shared" si="0"/>
         <v>i = 7.00487  # [deg] inclination</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="67" t="str">
+      <c r="A5" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="64" t="str">
         <f t="shared" si="0"/>
         <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="67" t="str">
+      <c r="A6" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="64" t="str">
         <f t="shared" si="0"/>
         <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="70" t="str">
+      <c r="A7" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="67" t="str">
         <f t="shared" si="0"/>
         <v>L = 252.25084  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="67" t="str">
+      <c r="B9" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="64" t="str">
         <f t="shared" ref="D9:D14" si="1">A9&amp;" = "&amp;B9&amp;"  # "&amp;C9</f>
         <v>a = 0.72333199  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="67" t="str">
+      <c r="B10" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="64" t="str">
         <f t="shared" si="1"/>
         <v>e = 0.00677323  # [1] eccentricity</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="67" t="str">
+      <c r="B11" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="64" t="str">
         <f t="shared" si="1"/>
         <v>i = 3.39471  # [deg] inclination</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="67" t="str">
+      <c r="A12" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="64" t="str">
         <f t="shared" si="1"/>
         <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="67" t="str">
+      <c r="A13" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="64" t="str">
         <f t="shared" si="1"/>
         <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A14" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="70" t="str">
+      <c r="A14" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="67" t="str">
         <f t="shared" si="1"/>
         <v>L = 181.97973  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="67" t="str">
+      <c r="B16" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="64" t="str">
         <f t="shared" ref="D16:D21" si="2">A16&amp;" = "&amp;B16&amp;"  # "&amp;C16</f>
         <v>a = 1.00000011  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="67" t="str">
+      <c r="B17" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="64" t="str">
         <f t="shared" si="2"/>
         <v>e = 0.01671022  # [1] eccentricity</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="67" t="str">
+      <c r="B18" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="64" t="str">
         <f t="shared" si="2"/>
         <v>i = 0.00005  # [deg] inclination</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="67" t="str">
+      <c r="A19" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="64" t="str">
         <f t="shared" si="2"/>
         <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="67" t="str">
+      <c r="A20" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="64" t="str">
         <f t="shared" si="2"/>
         <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="70" t="str">
+      <c r="A21" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="67" t="str">
         <f t="shared" si="2"/>
         <v>L = 100.46435  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="64"/>
-      <c r="B22" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="67" t="str">
+      <c r="B23" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="64" t="str">
         <f t="shared" ref="D23:D28" si="3">A23&amp;" = "&amp;B23&amp;"  # "&amp;C23</f>
         <v>a = 1.52366231  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="67" t="str">
+      <c r="B24" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="64" t="str">
         <f t="shared" si="3"/>
         <v>e = 0.09341233  # [1] eccentricity</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="67" t="str">
+      <c r="B25" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="64" t="str">
         <f t="shared" si="3"/>
         <v>i = 1.85061  # [deg] inclination</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="67" t="str">
+      <c r="A26" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="67" t="str">
+      <c r="A27" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="64" t="str">
         <f t="shared" si="3"/>
         <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="70" t="str">
+      <c r="A28" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="67" t="str">
         <f t="shared" si="3"/>
         <v>L = 355.45332  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="67" t="str">
+      <c r="B30" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="64" t="str">
         <f t="shared" ref="D30:D35" si="4">A30&amp;" = "&amp;B30&amp;"  # "&amp;C30</f>
         <v>a = 5.20336301  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="67" t="str">
+      <c r="B31" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="64" t="str">
         <f t="shared" si="4"/>
         <v>e = 0.04839266  # [1] eccentricity</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="67" t="str">
+      <c r="B32" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="64" t="str">
         <f t="shared" si="4"/>
         <v>i = 1.30530  # [deg] inclination</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" s="67" t="str">
+      <c r="A33" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="64" t="str">
         <f t="shared" si="4"/>
         <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="67" t="str">
+      <c r="A34" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="64" t="str">
         <f t="shared" si="4"/>
         <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A35" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="70" t="str">
+      <c r="A35" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="67" t="str">
         <f t="shared" si="4"/>
         <v>L = 34.40438  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="64"/>
-      <c r="B36" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="67" t="str">
+      <c r="B37" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="64" t="str">
         <f t="shared" ref="D37:D42" si="5">A37&amp;" = "&amp;B37&amp;"  # "&amp;C37</f>
         <v>a = 9.53707032  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="67" t="str">
+      <c r="B38" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="64" t="str">
         <f t="shared" si="5"/>
         <v>e = 0.05415060  # [1] eccentricity</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="67" t="str">
+      <c r="B39" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="64" t="str">
         <f t="shared" si="5"/>
         <v>i = 2.48446  # [deg] inclination</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="67" t="str">
+      <c r="A40" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="64" t="str">
         <f t="shared" si="5"/>
         <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="67" t="str">
+      <c r="A41" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="64" t="str">
         <f t="shared" si="5"/>
         <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A42" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="70" t="str">
+      <c r="A42" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="67" t="str">
         <f t="shared" si="5"/>
         <v>L = 49.94432  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="64"/>
-      <c r="B43" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="67" t="str">
+      <c r="B44" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="64" t="str">
         <f t="shared" ref="D44:D49" si="6">A44&amp;" = "&amp;B44&amp;"  # "&amp;C44</f>
         <v>a = 19.19126393  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="67" t="str">
+      <c r="B45" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="64" t="str">
         <f t="shared" si="6"/>
         <v>e = 0.04716771  # [1] eccentricity</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46" s="67" t="str">
+      <c r="B46" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="64" t="str">
         <f t="shared" si="6"/>
         <v>i = 0.76986  # [deg] inclination</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D47" s="67" t="str">
+      <c r="A47" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="64" t="str">
         <f t="shared" si="6"/>
         <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D48" s="67" t="str">
+      <c r="A48" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="64" t="str">
         <f t="shared" si="6"/>
         <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A49" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="70" t="str">
+      <c r="A49" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="67" t="str">
         <f t="shared" si="6"/>
         <v>L = 313.23218  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="64"/>
-      <c r="B50" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D51" s="67" t="str">
+      <c r="B51" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="64" t="str">
         <f t="shared" ref="D51:D56" si="7">A51&amp;" = "&amp;B51&amp;"  # "&amp;C51</f>
         <v>a = 30.06896348  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" s="67" t="str">
+      <c r="B52" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="64" t="str">
         <f t="shared" si="7"/>
         <v>e = 0.00858587  # [1] eccentricity</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="67" t="str">
+      <c r="B53" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" s="64" t="str">
         <f t="shared" si="7"/>
         <v>i = 1.76917  # [deg] inclination</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D54" s="67" t="str">
+      <c r="A54" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="64" t="str">
         <f t="shared" si="7"/>
         <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="67" t="str">
+      <c r="A55" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="64" t="str">
         <f t="shared" si="7"/>
         <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A56" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D56" s="70" t="str">
+      <c r="A56" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="67" t="str">
         <f t="shared" si="7"/>
         <v>L = 304.88003  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="64"/>
-      <c r="B57" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D58" s="67" t="str">
+      <c r="B58" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="64" t="str">
         <f t="shared" ref="D58:D63" si="8">A58&amp;" = "&amp;B58&amp;"  # "&amp;C58</f>
         <v>a = 39.48168677  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" s="67" t="str">
+      <c r="B59" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="64" t="str">
         <f t="shared" si="8"/>
         <v>e = 0.24880766  # [1] eccentricity</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" s="67" t="str">
+      <c r="B60" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="64" t="str">
         <f t="shared" si="8"/>
         <v>i = 17.14175  # [deg] inclination</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="67" t="str">
+      <c r="A61" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" s="67" t="str">
+      <c r="A62" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="64" t="str">
         <f t="shared" si="8"/>
         <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A63" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" s="70" t="str">
+      <c r="A63" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="67" t="str">
         <f t="shared" si="8"/>
         <v>L = 238.92881  # [deg] mean longitude</v>
       </c>
@@ -6791,9 +7030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -6819,7 +7056,7 @@
     <row r="2" spans="1:18">
       <c r="A2" s="17"/>
       <c r="E2" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>50</v>
@@ -6857,25 +7094,25 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="23"/>
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="75" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="23"/>
@@ -6884,26 +7121,27 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="75" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="23"/>
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="23" t="s">
         <v>85</v>
       </c>
+      <c r="B6" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="75"/>
       <c r="D6" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="21">
         <v>0.22700000000000001</v>
@@ -6918,13 +7156,14 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="C7" s="75"/>
       <c r="D7" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="21">
         <v>0.29499999999999998</v>
@@ -6941,10 +7180,10 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="23"/>
@@ -6980,10 +7219,10 @@
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="75" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="23"/>
@@ -7019,11 +7258,11 @@
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>73</v>
+      <c r="C10" s="75" t="s">
+        <v>271</v>
       </c>
       <c r="D10" s="24"/>
       <c r="H10" s="21">
@@ -7055,20 +7294,20 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s">
+      <c r="A11" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="77" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="H11" s="21">
         <v>4.8000000000000001E-2</v>
@@ -7099,17 +7338,17 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s">
+      <c r="A12" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="77" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="21">
         <v>85.5</v>
@@ -7140,17 +7379,17 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s">
+      <c r="A13" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="77">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>43</v>
@@ -7166,10 +7405,10 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="75" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="23"/>
@@ -7205,11 +7444,11 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>74</v>
+      <c r="C15" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="23"/>
       <c r="H15" s="21">
@@ -7244,11 +7483,11 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>74</v>
+      <c r="C16" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="D16" s="23"/>
       <c r="H16" s="21">
@@ -7283,11 +7522,11 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>74</v>
+      <c r="C17" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="23"/>
       <c r="H17" s="21">
@@ -7322,11 +7561,11 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>75</v>
+      <c r="C18" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="23"/>
       <c r="H18" s="21">
@@ -7361,10 +7600,10 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="75" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="23"/>
@@ -7400,11 +7639,12 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="74" t="s">
         <v>35</v>
       </c>
+      <c r="C20" s="75"/>
       <c r="D20" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="21">
         <v>0.59</v>
@@ -7438,14 +7678,14 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>104</v>
+      <c r="D21" s="74" t="s">
+        <v>103</v>
       </c>
       <c r="H21" s="21">
         <v>1.347</v>
@@ -7477,12 +7717,12 @@
     </row>
     <row r="23" spans="1:16">
       <c r="D23" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="D24" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7506,8 +7746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7521,404 +7761,408 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="35"/>
+    <col min="1" max="1" width="10.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="35">
+      <c r="A1" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="32">
         <f>0.043333</f>
         <v>4.3333000000000003E-2</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="K2" s="35">
+      <c r="K2" s="32">
         <f>K1*180/PI()</f>
         <v>2.4827980136403962</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="62" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="30">
+      <c r="A4" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" ht="60">
+      <c r="A5" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
+      <c r="A8" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="B8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60">
+      <c r="A9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="A10" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="30">
+      <c r="A12" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="120">
+      <c r="A13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="45">
+      <c r="A15" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45">
+      <c r="A16" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60">
+      <c r="A17" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75">
+      <c r="A18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45">
+      <c r="A19" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:11" ht="60">
-      <c r="A5" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" ht="30">
-      <c r="A6" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B19" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60">
-      <c r="A8" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60">
-      <c r="A9" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" ht="30">
-      <c r="A12" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="120">
-      <c r="A13" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="38" t="s">
+      <c r="D19" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="48">
+      <c r="A21" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="37"/>
+      <c r="B29" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18">
-      <c r="A14" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="45">
-      <c r="A15" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45">
-      <c r="A16" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60">
-      <c r="A17" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75">
-      <c r="A18" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
-      <c r="A19" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18">
-      <c r="A20" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="48">
-      <c r="A21" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="38"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="38" t="s">
+      <c r="C29" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33">
+      <c r="A30" s="37"/>
+      <c r="B30" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="40"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="40"/>
-      <c r="B29" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="33">
-      <c r="A30" s="40"/>
-      <c r="B30" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="59" t="s">
-        <v>235</v>
+      <c r="A38" s="56" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="C42" s="34"/>
+      <c r="C42" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7938,152 +8182,152 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="53" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="53"/>
-    <col min="7" max="7" width="13.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="53"/>
-    <col min="13" max="13" width="53.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="53"/>
+    <col min="1" max="1" width="2" style="50" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="50"/>
+    <col min="7" max="7" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="50"/>
+    <col min="13" max="13" width="53.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50" t="s">
+      <c r="B2" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="C4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name=" TIC 178155732" sheetId="6" r:id="rId6"/>
     <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
     <sheet name="Kepler Parameter 6" sheetId="9" r:id="rId8"/>
-    <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId9"/>
-    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId10"/>
+    <sheet name="Demo" sheetId="13" r:id="rId9"/>
+    <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId10"/>
+    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="278">
   <si>
     <t>DT</t>
   </si>
@@ -1187,6 +1188,15 @@
   </si>
   <si>
     <t>Angle in the plane of the orbit between the direction of periapsis and the current position of the body, as seen from the main focus of the ellipse (the point around which the object orbits).</t>
+  </si>
+  <si>
+    <t>Checken!!!!</t>
+  </si>
+  <si>
+    <t>nein 270 ist woanders</t>
+  </si>
+  <si>
+    <t>Mean longitude is the ecliptic longitude at which an orbiting body could be found if its orbit were circular and free of perturbations. While nominally a simple longitude, in practice the mean longitude does not correspond to any one physical angle.</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1510,6 +1520,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1520,7 +1690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1680,6 +1850,62 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5110,8 +5336,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>309984</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5174,6 +5400,2403 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>503850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Ellipse 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="6648450"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Ellipse 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3981450"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>677999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1523999" y="952500"/>
+          <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>689310</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>600296</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ellipse 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21606711" y="1090362"/>
+          <a:ext cx="1439999" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Ellipse 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="1685925"/>
+          <a:ext cx="1440000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>724401</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>67894</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Ellipse 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22982822" y="683294"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Ellipse 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038849" y="1628775"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>727124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Ellipse 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905124" y="1628775"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>677999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Ellipse 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609724" y="676275"/>
+          <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Ellipse 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="1409700"/>
+          <a:ext cx="1440000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Ellipse 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438774" y="4019550"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12749</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Ellipse 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276474" y="3295650"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Ellipse 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="6267450"/>
+          <a:ext cx="2725874" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Ellipse 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4076700"/>
+          <a:ext cx="1440000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Ellipse 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115049" y="6686550"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184199</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Ellipse 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209924" y="6667500"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>689310</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104803</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Ellipse 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22947731" y="275723"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Ellipse 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1304925"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Ellipse 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="3981450"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>427650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>46650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Ellipse 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="6638925"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Ellipse 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="1314450"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>503850</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Ellipse 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5741194" y="6460331"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135074</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Ellipse 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="540544" y="6079331"/>
+          <a:ext cx="2725874" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Ellipse 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4760119" y="6555581"/>
+          <a:ext cx="1440000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41324</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Ellipse 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6112668" y="6498431"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184199</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Ellipse 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3207543" y="6479381"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>427650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>46650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Ellipse 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616994" y="6450806"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Ellipse 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12743949" y="1294899"/>
+          <a:ext cx="180000" cy="177493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>135074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Ellipse 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="544930" y="8538912"/>
+          <a:ext cx="2735901" cy="892342"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Ellipse 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11760367" y="1264818"/>
+          <a:ext cx="1445013" cy="239127"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81213</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>191719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Ellipse 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12501312" y="1433262"/>
+          <a:ext cx="110506" cy="105493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>201527</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>309527</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78422</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Ellipse 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8799093" y="1765133"/>
+          <a:ext cx="108000" cy="105493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>427650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Ellipse 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="8905374"/>
+          <a:ext cx="180000" cy="177493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>503850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Ellipse 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12743949" y="1294899"/>
+          <a:ext cx="180000" cy="177493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>135074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Ellipse 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7525753" y="918912"/>
+          <a:ext cx="2735900" cy="892342"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Ellipse 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11760367" y="1390149"/>
+          <a:ext cx="1445013" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>41324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Ellipse 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115423" y="1332999"/>
+          <a:ext cx="110506" cy="105493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>184199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Ellipse 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10202778" y="1313949"/>
+          <a:ext cx="108000" cy="105493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>427650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Ellipse 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9609722" y="1285374"/>
+          <a:ext cx="180000" cy="177493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5744,6 +8367,169 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2" style="50" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="50"/>
+    <col min="7" max="7" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="50"/>
+    <col min="13" max="13" width="53.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7746,7 +10532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -7761,8 +10547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7938,14 +10724,16 @@
       <c r="C14" s="37"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="45">
+    <row r="15" spans="1:11" ht="75">
       <c r="A15" s="35" t="s">
         <v>228</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="35" t="s">
+        <v>277</v>
+      </c>
       <c r="D15" s="35" t="s">
         <v>224</v>
       </c>
@@ -7964,7 +10752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:5" ht="60">
       <c r="A17" s="37" t="s">
         <v>119</v>
       </c>
@@ -7978,7 +10766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75">
+    <row r="18" spans="1:5" ht="75">
       <c r="A18" s="37" t="s">
         <v>124</v>
       </c>
@@ -7992,7 +10780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45">
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="37" t="s">
         <v>140</v>
       </c>
@@ -8006,7 +10794,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18">
+    <row r="20" spans="1:5" ht="18">
       <c r="A20" s="72" t="s">
         <v>37</v>
       </c>
@@ -8018,7 +10806,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="48">
+    <row r="21" spans="1:5" ht="48">
       <c r="A21" s="37" t="s">
         <v>249</v>
       </c>
@@ -8030,7 +10818,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="35" t="s">
         <v>265</v>
       </c>
@@ -8042,7 +10830,7 @@
       </c>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="73" t="s">
         <v>148</v>
       </c>
@@ -8054,7 +10842,7 @@
       </c>
       <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="35" t="s">
         <v>71</v>
       </c>
@@ -8066,25 +10854,25 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="37"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="57"/>
       <c r="B28" s="58" t="s">
         <v>165</v>
@@ -8096,7 +10884,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="37"/>
       <c r="B29" s="35" t="s">
         <v>163</v>
@@ -8108,7 +10896,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33">
+    <row r="30" spans="1:5" ht="33">
       <c r="A30" s="37"/>
       <c r="B30" s="35" t="s">
         <v>264</v>
@@ -8119,14 +10907,17 @@
       <c r="D30" s="35" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -8176,163 +10967,953 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M8"/>
+  <dimension ref="B1:AD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="50"/>
-    <col min="13" max="13" width="53.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="50"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="21" max="21" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="51" t="s">
+    <row r="1" spans="2:30" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:30">
+      <c r="B2" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="C2" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="D2" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="52" t="s">
+      <c r="E2" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="F2" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="L2" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80"/>
+      <c r="V2" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="80"/>
+    </row>
+    <row r="3" spans="2:30">
+      <c r="B3" s="91">
+        <v>0</v>
+      </c>
+      <c r="C3" s="92">
+        <v>90</v>
+      </c>
+      <c r="D3" s="92">
+        <v>0</v>
+      </c>
+      <c r="E3" s="92">
+        <v>0</v>
+      </c>
+      <c r="F3" s="93">
+        <v>0</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="L3" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="101">
+        <v>85</v>
+      </c>
+      <c r="N3" s="92">
+        <v>0</v>
+      </c>
+      <c r="O3" s="92">
+        <v>0</v>
+      </c>
+      <c r="P3" s="93">
+        <v>270</v>
+      </c>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
+      <c r="V3" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="92">
+        <v>90</v>
+      </c>
+      <c r="X3" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+    </row>
+    <row r="4" spans="2:30">
+      <c r="B4" s="83"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="82"/>
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="83"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="82"/>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="83"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="82"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="82"/>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="83"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="82"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="82"/>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="83"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="82"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="82"/>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="83"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="82"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="82"/>
+    </row>
+    <row r="10" spans="2:30">
+      <c r="B10" s="83"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="82"/>
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="83"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="82"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="82"/>
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="83"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="82"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="82"/>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="83"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="82"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="82"/>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="86"/>
+    </row>
+    <row r="15" spans="2:30" ht="7.5" customHeight="1"/>
+    <row r="16" spans="2:30">
+      <c r="B16" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="91">
+        <v>0</v>
+      </c>
+      <c r="C17" s="92">
+        <v>90</v>
+      </c>
+      <c r="D17" s="92">
+        <v>0</v>
+      </c>
+      <c r="E17" s="92">
+        <v>0</v>
+      </c>
+      <c r="F17" s="95">
+        <v>90</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="83"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="83"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="83"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="82"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="83"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="83"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="83"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="83"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="83"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="83"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="83"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="86"/>
+    </row>
+    <row r="29" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="92">
+        <v>90</v>
+      </c>
+      <c r="D31" s="92">
+        <v>0</v>
+      </c>
+      <c r="E31" s="92">
+        <v>0</v>
+      </c>
+      <c r="F31" s="93">
+        <v>0</v>
+      </c>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="82"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="83"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="82"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="83"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="82"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="83"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="82"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="83"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="82"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="83"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="82"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="83"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="83"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="83"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="82"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="83"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="82"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="83"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="82"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+    </row>
+    <row r="43" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="44" spans="2:10">
+      <c r="B44" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="97">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="92">
+        <v>90</v>
+      </c>
+      <c r="D45" s="92">
+        <v>0</v>
+      </c>
+      <c r="E45" s="92">
+        <v>0</v>
+      </c>
+      <c r="F45" s="93">
+        <v>0</v>
+      </c>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="82"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="83"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="82"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="83"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="82"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="83"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="82"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="83"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="82"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="83"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="82"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="83"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="82"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="83"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="82"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="83"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="82"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="83"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="82"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="83"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="82"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="84"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="86"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\curvesim\research\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9474494D18547D44A3E559657BE4A97295AE05CD" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3C41936A-EC69-45DE-9465-80D5850ED071}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="28452" windowHeight="12036" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -15,16 +21,16 @@
     <sheet name=" TIC 178155732" sheetId="6" r:id="rId6"/>
     <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
     <sheet name="Kepler Parameter 6" sheetId="9" r:id="rId8"/>
-    <sheet name="Demo" sheetId="13" r:id="rId9"/>
+    <sheet name="Parameter-Interpretation" sheetId="13" r:id="rId9"/>
     <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId10"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="285">
   <si>
     <t>DT</t>
   </si>
@@ -1193,26 +1199,47 @@
     <t>Checken!!!!</t>
   </si>
   <si>
-    <t>nein 270 ist woanders</t>
-  </si>
-  <si>
     <t>Mean longitude is the ecliptic longitude at which an orbiting body could be found if its orbit were circular and free of perturbations. While nominally a simple longitude, in practice the mean longitude does not correspond to any one physical angle.</t>
+  </si>
+  <si>
+    <t>L=270</t>
+  </si>
+  <si>
+    <t>L=180</t>
+  </si>
+  <si>
+    <t>L=35</t>
+  </si>
+  <si>
+    <t>L=90</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>L=0</t>
+  </si>
+  <si>
+    <t>L=325</t>
+  </si>
+  <si>
+    <t>L stimmt nur ungefähr.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,24 +1710,24 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1907,15 +1934,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1936,7 +1974,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1981,7 +2025,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="Gruppieren 56"/>
+        <xdr:cNvPr id="57" name="Gruppieren 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1994,7 +2044,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Ellipse 6"/>
+          <xdr:cNvPr id="7" name="Ellipse 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2033,7 +2089,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Ellipse 7"/>
+          <xdr:cNvPr id="8" name="Ellipse 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2092,7 +2154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2130,7 +2198,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2168,7 +2242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1"/>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2208,7 +2288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Ellipse 5"/>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2267,7 +2353,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Gerade Verbindung 9" descr="rB"/>
+        <xdr:cNvPr id="10" name="Gerade Verbindung 9" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2317,7 +2409,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung 11" descr="rB"/>
+        <xdr:cNvPr id="12" name="Gerade Verbindung 11" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2368,7 +2466,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Gerade Verbindung 14" descr="rB"/>
+        <xdr:cNvPr id="15" name="Gerade Verbindung 14" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2418,7 +2522,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Textfeld 21"/>
+        <xdr:cNvPr id="22" name="Textfeld 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2488,7 +2598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Textfeld 22"/>
+        <xdr:cNvPr id="23" name="Textfeld 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2577,7 +2693,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Textfeld 23"/>
+        <xdr:cNvPr id="24" name="Textfeld 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2663,7 +2785,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Textfeld 24"/>
+        <xdr:cNvPr id="25" name="Textfeld 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2725,7 +2853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Textfeld 25"/>
+        <xdr:cNvPr id="26" name="Textfeld 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2787,7 +2921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Textfeld 26"/>
+        <xdr:cNvPr id="27" name="Textfeld 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2857,7 +2997,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Gerade Verbindung 29" descr="rB"/>
+        <xdr:cNvPr id="30" name="Gerade Verbindung 29" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2907,7 +3053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Textfeld 32"/>
+        <xdr:cNvPr id="33" name="Textfeld 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2969,7 +3121,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Gerade Verbindung 33" descr="rB"/>
+        <xdr:cNvPr id="34" name="Gerade Verbindung 33" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3019,7 +3177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Textfeld 36"/>
+        <xdr:cNvPr id="37" name="Textfeld 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3081,7 +3245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Textfeld 37"/>
+        <xdr:cNvPr id="38" name="Textfeld 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3143,7 +3313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Textfeld 38"/>
+        <xdr:cNvPr id="39" name="Textfeld 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3213,7 +3389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Bogen 42"/>
+        <xdr:cNvPr id="43" name="Bogen 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3277,7 +3459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Bogen 43"/>
+        <xdr:cNvPr id="44" name="Bogen 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3341,7 +3529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Grafik 44"/>
+        <xdr:cNvPr id="45" name="Grafik 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3379,7 +3573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Textfeld 45"/>
+        <xdr:cNvPr id="46" name="Textfeld 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3441,7 +3641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Textfeld 47"/>
+        <xdr:cNvPr id="48" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3511,7 +3717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Textfeld 48"/>
+        <xdr:cNvPr id="49" name="Textfeld 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3581,7 +3793,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Gerade Verbindung 50" descr="rB"/>
+        <xdr:cNvPr id="51" name="Gerade Verbindung 50" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3632,7 +3850,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Grafik 57"/>
+        <xdr:cNvPr id="58" name="Grafik 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3670,7 +3894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Grafik 58"/>
+        <xdr:cNvPr id="59" name="Grafik 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3708,7 +3938,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Gerade Verbindung 60" descr="rB"/>
+        <xdr:cNvPr id="61" name="Gerade Verbindung 60" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3760,7 +3996,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Gerade Verbindung 70" descr="rB"/>
+        <xdr:cNvPr id="71" name="Gerade Verbindung 70" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3811,7 +4053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Textfeld 73"/>
+        <xdr:cNvPr id="74" name="Textfeld 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3913,7 +4161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Textfeld 74"/>
+        <xdr:cNvPr id="75" name="Textfeld 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4018,7 +4272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Textfeld 40"/>
+        <xdr:cNvPr id="41" name="Textfeld 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4082,7 +4342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Textfeld 41"/>
+        <xdr:cNvPr id="42" name="Textfeld 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4146,7 +4412,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Gerade Verbindung 64" descr="rB"/>
+        <xdr:cNvPr id="65" name="Gerade Verbindung 64" descr="rB">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4196,7 +4468,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Textfeld 69"/>
+        <xdr:cNvPr id="70" name="Textfeld 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4263,7 +4541,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Ellipse 71"/>
+        <xdr:cNvPr id="72" name="Ellipse 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4326,7 +4610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4366,7 +4656,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4409,7 +4705,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4447,7 +4749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4490,7 +4798,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4708,7 +5022,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4793,7 +5113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4938,7 +5264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Textfeld 6"/>
+        <xdr:cNvPr id="7" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5056,7 +5388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5"/>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5263,7 +5601,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5303,7 +5647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5341,7 +5691,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5379,7 +5735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5"/>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5412,22 +5774,28 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>503850</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Ellipse 52"/>
+        <xdr:cNvPr id="53" name="Ellipse 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="6648450"/>
+          <a:off x="5958639" y="6122569"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5478,18 +5846,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160950</xdr:colOff>
+      <xdr:colOff>130872</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Ellipse 53"/>
+        <xdr:cNvPr id="54" name="Ellipse 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="3981450"/>
+          <a:off x="5585661" y="3686175"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5540,79 +5914,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>677999</xdr:colOff>
+      <xdr:colOff>617841</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>106500</xdr:rowOff>
+      <xdr:rowOff>176684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1"/>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1523999" y="952500"/>
+          <a:off x="1644315" y="641684"/>
           <a:ext cx="1440000" cy="1440000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>689310</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>600296</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>174178</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Ellipse 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21606711" y="1090362"/>
-          <a:ext cx="1439999" cy="1440000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5666,7 +5986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ellipse 8"/>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5713,68 +6039,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>724401</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>67894</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Ellipse 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22982822" y="683294"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -5782,18 +6046,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50849</xdr:colOff>
+      <xdr:colOff>20770</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>22275</xdr:rowOff>
+      <xdr:rowOff>32301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Ellipse 18"/>
+        <xdr:cNvPr id="19" name="Ellipse 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038849" y="1628775"/>
+          <a:off x="6339638" y="1287880"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5838,24 +6108,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
+      <xdr:colOff>558968</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>727124</xdr:colOff>
+      <xdr:colOff>666968</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>22275</xdr:rowOff>
+      <xdr:rowOff>32301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Ellipse 19"/>
+        <xdr:cNvPr id="20" name="Ellipse 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905124" y="1628775"/>
+          <a:off x="3025442" y="1287880"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5906,18 +6182,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>677999</xdr:colOff>
+      <xdr:colOff>617841</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>106500</xdr:rowOff>
+      <xdr:rowOff>176684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Ellipse 20"/>
+        <xdr:cNvPr id="21" name="Ellipse 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609724" y="676275"/>
+          <a:off x="1644315" y="3078079"/>
           <a:ext cx="1440000" cy="1440000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5972,7 +6254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Ellipse 21"/>
+        <xdr:cNvPr id="22" name="Ellipse 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6019,25 +6307,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>127049</xdr:colOff>
+      <xdr:colOff>96971</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22275</xdr:rowOff>
+      <xdr:rowOff>32301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Ellipse 22"/>
+        <xdr:cNvPr id="23" name="Ellipse 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438774" y="4019550"/>
+          <a:off x="5623760" y="3724275"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6082,24 +6376,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>656723</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12749</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60375</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>764723</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Ellipse 23"/>
+        <xdr:cNvPr id="24" name="Ellipse 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276474" y="3295650"/>
+          <a:off x="2331118" y="4464217"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6156,7 +6456,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Ellipse 24"/>
+        <xdr:cNvPr id="25" name="Ellipse 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6216,7 +6522,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Ellipse 25"/>
+        <xdr:cNvPr id="26" name="Ellipse 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6270,18 +6582,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41324</xdr:colOff>
+      <xdr:colOff>11245</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>22275</xdr:rowOff>
+      <xdr:rowOff>32302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Ellipse 26"/>
+        <xdr:cNvPr id="27" name="Ellipse 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6115049" y="6686550"/>
+          <a:off x="6330113" y="6160670"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6334,16 +6652,22 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>184199</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>3225</xdr:rowOff>
+      <xdr:rowOff>13252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Ellipse 27"/>
+        <xdr:cNvPr id="28" name="Ellipse 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209924" y="6667500"/>
+          <a:off x="3334752" y="6141620"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6387,68 +6711,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>689310</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>104803</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>167466</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Ellipse 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22947731" y="275723"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6456,18 +6718,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>56175</xdr:colOff>
+      <xdr:colOff>26096</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>46650</xdr:rowOff>
+      <xdr:rowOff>56676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Ellipse 49"/>
+        <xdr:cNvPr id="50" name="Ellipse 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247900" y="1304925"/>
+          <a:off x="2312570" y="1240255"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6518,18 +6786,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>46650</xdr:colOff>
+      <xdr:colOff>16571</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Ellipse 50"/>
+        <xdr:cNvPr id="51" name="Ellipse 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="3981450"/>
+          <a:off x="2303045" y="3686175"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6576,22 +6850,28 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>427650</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>46650</xdr:rowOff>
+      <xdr:rowOff>56676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Ellipse 51"/>
+        <xdr:cNvPr id="52" name="Ellipse 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619375" y="6638925"/>
+          <a:off x="2714124" y="6113044"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6644,16 +6924,22 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>189525</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Ellipse 54"/>
+        <xdr:cNvPr id="55" name="Ellipse 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5429250" y="1314450"/>
+          <a:off x="5644314" y="1249780"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6706,16 +6992,22 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>503850</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Ellipse 56"/>
+        <xdr:cNvPr id="57" name="Ellipse 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5741194" y="6460331"/>
+          <a:off x="5958639" y="8548938"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6772,7 +7064,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Ellipse 57"/>
+        <xdr:cNvPr id="58" name="Ellipse 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6832,7 +7130,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Ellipse 58"/>
+        <xdr:cNvPr id="59" name="Ellipse 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6879,25 +7183,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>765507</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41324</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81429</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>22275</xdr:rowOff>
+      <xdr:rowOff>32300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Ellipse 59"/>
+        <xdr:cNvPr id="60" name="Ellipse 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6112668" y="6498431"/>
+          <a:off x="5608218" y="8587037"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6941,25 +7251,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>196515</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>135856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>184199</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>3225</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304515</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Ellipse 60"/>
+        <xdr:cNvPr id="61" name="Ellipse 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3207543" y="6479381"/>
+          <a:off x="1870910" y="8979067"/>
           <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7012,16 +7328,22 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>427650</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>46650</xdr:rowOff>
+      <xdr:rowOff>56676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Ellipse 61"/>
+        <xdr:cNvPr id="62" name="Ellipse 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2616994" y="6450806"/>
+          <a:off x="2714124" y="8539413"/>
           <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7074,17 +7396,23 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>503850</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Ellipse 62"/>
+        <xdr:cNvPr id="63" name="Ellipse 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12743949" y="1294899"/>
-          <a:ext cx="180000" cy="177493"/>
+          <a:off x="13187613" y="1249780"/>
+          <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7140,7 +7468,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Ellipse 63"/>
+        <xdr:cNvPr id="64" name="Ellipse 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7200,7 +7534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Ellipse 64"/>
+        <xdr:cNvPr id="65" name="Ellipse 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7248,25 +7588,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>81213</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17045</xdr:rowOff>
+      <xdr:colOff>722897</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>191719</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38818</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>122538</xdr:rowOff>
+      <xdr:rowOff>14755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Ellipse 65"/>
+        <xdr:cNvPr id="66" name="Ellipse 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12501312" y="1433262"/>
-          <a:ext cx="110506" cy="105493"/>
+          <a:off x="13586660" y="1270334"/>
+          <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7309,26 +7655,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>201527</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>160922</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61159</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>309527</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78422</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>169159</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Ellipse 66"/>
+        <xdr:cNvPr id="67" name="Ellipse 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8799093" y="1765133"/>
-          <a:ext cx="108000" cy="105493"/>
+          <a:off x="10548685" y="1273844"/>
+          <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7380,17 +7732,23 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>427650</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>46650</xdr:rowOff>
+      <xdr:rowOff>56676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Ellipse 67"/>
+        <xdr:cNvPr id="68" name="Ellipse 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="8905374"/>
-          <a:ext cx="180000" cy="177493"/>
+          <a:off x="9943097" y="1240255"/>
+          <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7442,17 +7800,23 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>503850</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:rowOff>66201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Ellipse 68"/>
+        <xdr:cNvPr id="69" name="Ellipse 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12743949" y="1294899"/>
-          <a:ext cx="180000" cy="177493"/>
+          <a:off x="20406561" y="1249780"/>
+          <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7508,7 +7872,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Ellipse 69"/>
+        <xdr:cNvPr id="70" name="Ellipse 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7568,7 +7938,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Ellipse 70"/>
+        <xdr:cNvPr id="71" name="Ellipse 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7622,19 +7998,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>41324</xdr:colOff>
+      <xdr:colOff>11246</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>22275</xdr:rowOff>
+      <xdr:rowOff>32301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Ellipse 71"/>
+        <xdr:cNvPr id="72" name="Ellipse 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13115423" y="1332999"/>
-          <a:ext cx="110506" cy="105493"/>
+          <a:off x="20778035" y="1287880"/>
+          <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7686,17 +8068,23 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>184199</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3225</xdr:rowOff>
+      <xdr:rowOff>13251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Ellipse 72"/>
+        <xdr:cNvPr id="73" name="Ellipse 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10202778" y="1313949"/>
-          <a:ext cx="108000" cy="105493"/>
+          <a:off x="17782673" y="1268830"/>
+          <a:ext cx="108000" cy="108000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7748,17 +8136,767 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>427650</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>46650</xdr:rowOff>
+      <xdr:rowOff>56676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Ellipse 73"/>
+        <xdr:cNvPr id="74" name="Ellipse 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9609722" y="1285374"/>
-          <a:ext cx="180000" cy="177493"/>
+          <a:off x="17162045" y="1240255"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411079</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>70184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>519079</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>178184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Ellipse 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84020077-5207-4C35-9B5F-09CE4DA2EA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="501316" y="8552447"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300789</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408789</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Ellipse 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444BD849-5B69-42A7-A8F0-BEEE4F648603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2767263" y="8221579"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230605</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338605</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>118025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Ellipse 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713992BC-0CD3-4EE3-BA2C-760F853F2CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="8131341"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62162</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170162</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>39821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Ellipse 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AF5CB-C03C-45A9-B989-DF00A6D0014A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3320715" y="8594558"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274721</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>64168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>382721</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>172168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Ellipse 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9761C2CF-96C6-4634-8D25-ADAF929BA37A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2741195" y="8907379"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>243640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>423640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Ellipse 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61558D-E4B0-45A7-A94F-6DDAAF29350E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13107403" y="3445543"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>135074</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Ellipse 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE3974-BA75-4D31-AB84-4B7B0CC60AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1830581">
+          <a:off x="7776411" y="3325228"/>
+          <a:ext cx="2846189" cy="854743"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Ellipse 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB87CFC9-A63D-4E6B-9DC1-26100A45F655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19226963">
+          <a:off x="12176459" y="3656094"/>
+          <a:ext cx="1500158" cy="231608"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>572502</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>680502</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Ellipse 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E5F1D9-A23B-4E06-B6F8-1A6621E8A489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13436265" y="3245518"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>652712</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>760712</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Ellipse 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA1CD07-5D6E-4670-BEDC-A5561BF33D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10348159" y="4422107"/>
+          <a:ext cx="108000" cy="108000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77203</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257203</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Ellipse 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98147E57-312F-4CB0-A9E7-4ADC3FEB3030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="4037597"/>
+          <a:ext cx="180000" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7803,9 +8941,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7843,9 +8981,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7877,9 +9015,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7911,9 +9067,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8086,21 +9260,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B9:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>4</v>
       </c>
@@ -8116,7 +9290,7 @@
         <v>39.478417604357432</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>5</v>
       </c>
@@ -8130,7 +9304,7 @@
         <v>149597870000</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -8146,7 +9320,7 @@
         <v>3.3479289288137507E+33</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>12756270</v>
       </c>
@@ -8163,7 +9337,7 @@
         <v>6.6740800000000003E-11</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>6378135</v>
       </c>
@@ -8180,7 +9354,7 @@
         <v>1.9884E+30</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>10</v>
@@ -8195,7 +9369,7 @@
         <v>5.9720000000000003E+24</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="G15" t="s">
         <v>8</v>
@@ -8212,7 +9386,7 @@
         <v>1.988405972E+30</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="G16" t="s">
         <v>11</v>
@@ -8229,7 +9403,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="G17" t="s">
         <v>12</v>
@@ -8246,7 +9420,7 @@
         <v>31558746.865251575</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>50000</v>
       </c>
@@ -8268,7 +9442,7 @@
         <v>365.26327390337474</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -8276,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f>B18*B19</f>
         <v>1500000</v>
@@ -8285,7 +9459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f>B20/3600/24</f>
         <v>17.361111111111111</v>
@@ -8308,7 +9482,7 @@
         <v>939951138769.36182</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="G22" t="s">
         <v>16</v>
@@ -8325,10 +9499,10 @@
         <v>29784.171810836851</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="G24" t="s">
         <v>19</v>
@@ -8339,7 +9513,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="G25" t="s">
         <v>18</v>
@@ -8349,7 +9523,7 @@
         <v>149597869999.99948</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="G26" t="s">
         <v>20</v>
@@ -8366,23 +9540,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="50"/>
-    <col min="13" max="13" width="53.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="12.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.44140625" style="50"/>
+    <col min="7" max="7" width="13.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" style="50"/>
+    <col min="13" max="13" width="53.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
         <v>225</v>
       </c>
@@ -8402,7 +9576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
@@ -8434,7 +9608,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
         <v>229</v>
       </c>
@@ -8464,7 +9638,7 @@
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -8478,7 +9652,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -8492,7 +9666,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -8506,7 +9680,7 @@
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -8522,25 +9696,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>241</v>
       </c>
@@ -8551,7 +9725,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>250</v>
       </c>
@@ -8562,7 +9736,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>236</v>
       </c>
@@ -8573,7 +9747,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>235</v>
       </c>
@@ -8582,7 +9756,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>238</v>
       </c>
@@ -8593,7 +9767,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>245</v>
       </c>
@@ -8610,35 +9784,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L8" s="9"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -8646,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -8655,7 +9829,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -8665,7 +9839,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -8675,7 +9849,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
@@ -8685,7 +9859,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -8695,79 +9869,79 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="18">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G45" s="26" t="s">
         <v>93</v>
       </c>
@@ -8775,7 +9949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G46" s="26" t="s">
         <v>94</v>
       </c>
@@ -8783,7 +9957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G47" s="26" t="s">
         <v>92</v>
       </c>
@@ -8791,19 +9965,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="15:15">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="15:15">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="15:15">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
-    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -8811,32 +9985,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung"/>
-    <hyperlink ref="A34" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -8844,19 +10018,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -8870,7 +10044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8885,7 +10059,7 @@
         <v>88820</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>16.600000000000001</v>
       </c>
@@ -8908,23 +10082,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="42"/>
-    <col min="3" max="3" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="42"/>
+    <col min="1" max="1" width="11.44140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="42"/>
+    <col min="3" max="3" width="31.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
       <c r="B1" s="68" t="s">
         <v>104</v>
@@ -8932,7 +10106,7 @@
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>47</v>
       </c>
@@ -8947,7 +10121,7 @@
         <v>a = 0.38709893  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>45</v>
       </c>
@@ -8962,7 +10136,7 @@
         <v>e = 0.20563069  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>46</v>
       </c>
@@ -8977,7 +10151,7 @@
         <v>i = 7.00487  # [deg] inclination</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>115</v>
       </c>
@@ -8992,7 +10166,7 @@
         <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>140</v>
       </c>
@@ -9007,7 +10181,7 @@
         <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
         <v>114</v>
       </c>
@@ -9022,7 +10196,7 @@
         <v>L = 252.25084  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="68" t="s">
         <v>105</v>
@@ -9030,7 +10204,7 @@
       <c r="C8" s="68"/>
       <c r="D8" s="69"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>47</v>
       </c>
@@ -9045,7 +10219,7 @@
         <v>a = 0.72333199  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>45</v>
       </c>
@@ -9060,7 +10234,7 @@
         <v>e = 0.00677323  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>46</v>
       </c>
@@ -9075,7 +10249,7 @@
         <v>i = 3.39471  # [deg] inclination</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
         <v>115</v>
       </c>
@@ -9090,7 +10264,7 @@
         <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>140</v>
       </c>
@@ -9105,7 +10279,7 @@
         <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
         <v>114</v>
       </c>
@@ -9120,7 +10294,7 @@
         <v>L = 181.97973  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="61"/>
       <c r="B15" s="68" t="s">
         <v>106</v>
@@ -9128,7 +10302,7 @@
       <c r="C15" s="68"/>
       <c r="D15" s="69"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
         <v>47</v>
       </c>
@@ -9143,7 +10317,7 @@
         <v>a = 1.00000011  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>45</v>
       </c>
@@ -9158,7 +10332,7 @@
         <v>e = 0.01671022  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>46</v>
       </c>
@@ -9173,7 +10347,7 @@
         <v>i = 0.00005  # [deg] inclination</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>115</v>
       </c>
@@ -9188,7 +10362,7 @@
         <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>140</v>
       </c>
@@ -9203,7 +10377,7 @@
         <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
         <v>114</v>
       </c>
@@ -9218,7 +10392,7 @@
         <v>L = 100.46435  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="61"/>
       <c r="B22" s="68" t="s">
         <v>107</v>
@@ -9226,7 +10400,7 @@
       <c r="C22" s="68"/>
       <c r="D22" s="69"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>47</v>
       </c>
@@ -9241,7 +10415,7 @@
         <v>a = 1.52366231  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>45</v>
       </c>
@@ -9256,7 +10430,7 @@
         <v>e = 0.09341233  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>46</v>
       </c>
@@ -9271,7 +10445,7 @@
         <v>i = 1.85061  # [deg] inclination</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>115</v>
       </c>
@@ -9286,7 +10460,7 @@
         <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>140</v>
       </c>
@@ -9301,7 +10475,7 @@
         <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
         <v>114</v>
       </c>
@@ -9316,7 +10490,7 @@
         <v>L = 355.45332  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="68" t="s">
         <v>108</v>
@@ -9324,7 +10498,7 @@
       <c r="C29" s="68"/>
       <c r="D29" s="69"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>47</v>
       </c>
@@ -9339,7 +10513,7 @@
         <v>a = 5.20336301  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>45</v>
       </c>
@@ -9354,7 +10528,7 @@
         <v>e = 0.04839266  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>46</v>
       </c>
@@ -9369,7 +10543,7 @@
         <v>i = 1.30530  # [deg] inclination</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>115</v>
       </c>
@@ -9384,7 +10558,7 @@
         <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
         <v>140</v>
       </c>
@@ -9399,7 +10573,7 @@
         <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
         <v>114</v>
       </c>
@@ -9414,7 +10588,7 @@
         <v>L = 34.40438  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="61"/>
       <c r="B36" s="68" t="s">
         <v>109</v>
@@ -9422,7 +10596,7 @@
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>47</v>
       </c>
@@ -9437,7 +10611,7 @@
         <v>a = 9.53707032  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="62" t="s">
         <v>45</v>
       </c>
@@ -9452,7 +10626,7 @@
         <v>e = 0.05415060  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="62" t="s">
         <v>46</v>
       </c>
@@ -9467,7 +10641,7 @@
         <v>i = 2.48446  # [deg] inclination</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="62" t="s">
         <v>115</v>
       </c>
@@ -9482,7 +10656,7 @@
         <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="62" t="s">
         <v>140</v>
       </c>
@@ -9497,7 +10671,7 @@
         <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
         <v>114</v>
       </c>
@@ -9512,7 +10686,7 @@
         <v>L = 49.94432  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="61"/>
       <c r="B43" s="68" t="s">
         <v>110</v>
@@ -9520,7 +10694,7 @@
       <c r="C43" s="68"/>
       <c r="D43" s="69"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="s">
         <v>47</v>
       </c>
@@ -9535,7 +10709,7 @@
         <v>a = 19.19126393  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>45</v>
       </c>
@@ -9550,7 +10724,7 @@
         <v>e = 0.04716771  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
         <v>46</v>
       </c>
@@ -9565,7 +10739,7 @@
         <v>i = 0.76986  # [deg] inclination</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
         <v>115</v>
       </c>
@@ -9580,7 +10754,7 @@
         <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>140</v>
       </c>
@@ -9595,7 +10769,7 @@
         <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="65" t="s">
         <v>114</v>
       </c>
@@ -9610,7 +10784,7 @@
         <v>L = 313.23218  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="68" t="s">
         <v>111</v>
@@ -9618,7 +10792,7 @@
       <c r="C50" s="68"/>
       <c r="D50" s="69"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>47</v>
       </c>
@@ -9633,7 +10807,7 @@
         <v>a = 30.06896348  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>45</v>
       </c>
@@ -9648,7 +10822,7 @@
         <v>e = 0.00858587  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>46</v>
       </c>
@@ -9663,7 +10837,7 @@
         <v>i = 1.76917  # [deg] inclination</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>115</v>
       </c>
@@ -9678,7 +10852,7 @@
         <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>140</v>
       </c>
@@ -9693,7 +10867,7 @@
         <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="65" t="s">
         <v>114</v>
       </c>
@@ -9708,7 +10882,7 @@
         <v>L = 304.88003  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="61"/>
       <c r="B57" s="68" t="s">
         <v>112</v>
@@ -9716,7 +10890,7 @@
       <c r="C57" s="68"/>
       <c r="D57" s="69"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="s">
         <v>47</v>
       </c>
@@ -9731,7 +10905,7 @@
         <v>a = 39.48168677  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="62" t="s">
         <v>45</v>
       </c>
@@ -9746,7 +10920,7 @@
         <v>e = 0.24880766  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
         <v>46</v>
       </c>
@@ -9761,7 +10935,7 @@
         <v>i = 17.14175  # [deg] inclination</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
         <v>115</v>
       </c>
@@ -9776,7 +10950,7 @@
         <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="s">
         <v>140</v>
       </c>
@@ -9791,7 +10965,7 @@
         <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="65" t="s">
         <v>114</v>
       </c>
@@ -9813,17 +10987,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="21" bestFit="1" customWidth="1"/>
@@ -9834,12 +11008,12 @@
     <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="E2" s="21" t="s">
         <v>83</v>
@@ -9878,7 +11052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -9891,7 +11065,7 @@
       <c r="D3" s="23"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -9905,7 +11079,7 @@
       <c r="N4" s="21"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -9918,7 +11092,7 @@
       <c r="D5" s="23"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -9940,7 +11114,7 @@
       </c>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9962,7 +11136,7 @@
       </c>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -10001,7 +11175,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10040,7 +11214,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -10079,7 +11253,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>47</v>
       </c>
@@ -10123,7 +11297,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>46</v>
       </c>
@@ -10164,7 +11338,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>45</v>
       </c>
@@ -10187,7 +11361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18">
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -10226,7 +11400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10265,7 +11439,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -10304,7 +11478,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -10343,7 +11517,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -10382,7 +11556,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -10421,7 +11595,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -10460,7 +11634,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -10501,27 +11675,27 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D23" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" s="17" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D20" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D23" r:id="rId8"/>
-    <hyperlink ref="D24" r:id="rId9"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId10"/>
@@ -10529,14 +11703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10544,24 +11718,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="10.6640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>162</v>
       </c>
@@ -10570,13 +11744,13 @@
         <v>4.3333000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K2" s="32">
         <f>K1*180/PI()</f>
         <v>2.4827980136403962</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>121</v>
       </c>
@@ -10590,7 +11764,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>136</v>
       </c>
@@ -10602,7 +11776,7 @@
       </c>
       <c r="D4" s="36"/>
     </row>
-    <row r="5" spans="1:11" ht="60">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>131</v>
       </c>
@@ -10614,7 +11788,7 @@
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>115</v>
       </c>
@@ -10626,7 +11800,7 @@
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>117</v>
       </c>
@@ -10640,7 +11814,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>141</v>
       </c>
@@ -10654,7 +11828,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>151</v>
       </c>
@@ -10668,7 +11842,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>233</v>
       </c>
@@ -10680,7 +11854,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>148</v>
       </c>
@@ -10690,7 +11864,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="35"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>155</v>
       </c>
@@ -10700,7 +11874,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="35"/>
     </row>
-    <row r="13" spans="1:11" ht="120">
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>149</v>
       </c>
@@ -10714,7 +11888,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>159</v>
       </c>
@@ -10724,7 +11898,7 @@
       <c r="C14" s="37"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="75">
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>228</v>
       </c>
@@ -10732,13 +11906,13 @@
         <v>116</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>145</v>
       </c>
@@ -10752,7 +11926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>119</v>
       </c>
@@ -10766,7 +11940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>124</v>
       </c>
@@ -10780,7 +11954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>140</v>
       </c>
@@ -10794,7 +11968,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
         <v>37</v>
       </c>
@@ -10806,7 +11980,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="48">
+    <row r="21" spans="1:5" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>249</v>
       </c>
@@ -10818,7 +11992,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>265</v>
       </c>
@@ -10830,7 +12004,7 @@
       </c>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
         <v>148</v>
       </c>
@@ -10842,7 +12016,7 @@
       </c>
       <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>71</v>
       </c>
@@ -10854,25 +12028,25 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="57"/>
       <c r="B28" s="58" t="s">
         <v>165</v>
@@ -10884,7 +12058,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="35" t="s">
         <v>163</v>
@@ -10896,7 +12070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="33">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="35" t="s">
         <v>264</v>
@@ -10911,54 +12085,54 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1"/>
-    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -10966,22 +12140,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="21" max="21" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="11" max="11" width="1.44140625" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="8.25" customHeight="1"/>
-    <row r="2" spans="2:30">
+    <row r="1" spans="2:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" s="87" t="s">
         <v>45</v>
       </c>
@@ -11040,7 +12214,7 @@
       <c r="AC2" s="79"/>
       <c r="AD2" s="80"/>
     </row>
-    <row r="3" spans="2:30">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="91">
         <v>0</v>
       </c>
@@ -11064,7 +12238,7 @@
         <v>0.5</v>
       </c>
       <c r="M3" s="101">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N3" s="92">
         <v>0</v>
@@ -11073,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="93">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
@@ -11099,7 +12273,7 @@
       <c r="AC3" s="81"/>
       <c r="AD3" s="82"/>
     </row>
-    <row r="4" spans="2:30">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="83"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -11128,7 +12302,7 @@
       <c r="AC4" s="81"/>
       <c r="AD4" s="82"/>
     </row>
-    <row r="5" spans="2:30">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="83"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
@@ -11157,7 +12331,7 @@
       <c r="AC5" s="81"/>
       <c r="AD5" s="82"/>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="83"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
@@ -11186,7 +12360,7 @@
       <c r="AC6" s="81"/>
       <c r="AD6" s="82"/>
     </row>
-    <row r="7" spans="2:30">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="83"/>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
@@ -11215,7 +12389,7 @@
       <c r="AC7" s="81"/>
       <c r="AD7" s="82"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="83"/>
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
@@ -11229,9 +12403,7 @@
       <c r="M8" s="81"/>
       <c r="N8" s="81"/>
       <c r="O8" s="81"/>
-      <c r="P8" s="81" t="s">
-        <v>276</v>
-      </c>
+      <c r="P8" s="81"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="81"/>
       <c r="S8" s="81"/>
@@ -11246,7 +12418,7 @@
       <c r="AC8" s="81"/>
       <c r="AD8" s="82"/>
     </row>
-    <row r="9" spans="2:30">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="83"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
@@ -11275,7 +12447,7 @@
       <c r="AC9" s="81"/>
       <c r="AD9" s="82"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" s="83"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
@@ -11304,7 +12476,7 @@
       <c r="AC10" s="81"/>
       <c r="AD10" s="82"/>
     </row>
-    <row r="11" spans="2:30">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="83"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
@@ -11333,7 +12505,7 @@
       <c r="AC11" s="81"/>
       <c r="AD11" s="82"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" s="83"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
@@ -11362,7 +12534,7 @@
       <c r="AC12" s="81"/>
       <c r="AD12" s="82"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B13" s="83"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
@@ -11391,7 +12563,7 @@
       <c r="AC13" s="81"/>
       <c r="AD13" s="82"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
@@ -11420,8 +12592,8 @@
       <c r="AC14" s="85"/>
       <c r="AD14" s="86"/>
     </row>
-    <row r="15" spans="2:30" ht="7.5" customHeight="1"/>
-    <row r="16" spans="2:30">
+    <row r="15" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B16" s="87" t="s">
         <v>45</v>
       </c>
@@ -11441,8 +12613,27 @@
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="80"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="L16" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="80"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="91">
         <v>0</v>
       </c>
@@ -11456,14 +12647,33 @@
         <v>0</v>
       </c>
       <c r="F17" s="95">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G17" s="81"/>
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="82"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="L17" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="101">
+        <v>80</v>
+      </c>
+      <c r="N17" s="92">
+        <v>45</v>
+      </c>
+      <c r="O17" s="92">
+        <v>0</v>
+      </c>
+      <c r="P17" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="82"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="83"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
@@ -11473,8 +12683,17 @@
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="82"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="L18" s="83"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="82"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="83"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -11484,8 +12703,17 @@
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
       <c r="J19" s="82"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="L19" s="83"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="82"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="83"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -11495,8 +12723,17 @@
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
       <c r="J20" s="82"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="L20" s="83"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="82"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="83"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -11506,8 +12743,17 @@
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="82"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="L21" s="83"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="82"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="83"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -11517,8 +12763,17 @@
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="82"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="L22" s="83"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="82"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="83"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -11528,8 +12783,17 @@
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="82"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="L23" s="83"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="82"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="83"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -11539,8 +12803,17 @@
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
       <c r="J24" s="82"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="L24" s="83"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="82"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="83"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -11550,8 +12823,17 @@
       <c r="H25" s="81"/>
       <c r="I25" s="81"/>
       <c r="J25" s="82"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="L25" s="83"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="82"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="83"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -11561,8 +12843,17 @@
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
       <c r="J26" s="82"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="L26" s="83"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="82"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="83"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -11572,8 +12863,17 @@
       <c r="H27" s="81"/>
       <c r="I27" s="81"/>
       <c r="J27" s="82"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="L27" s="83"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="82"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="84"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
@@ -11583,9 +12883,18 @@
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
       <c r="J28" s="86"/>
-    </row>
-    <row r="29" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="30" spans="2:10">
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="86"/>
+    </row>
+    <row r="29" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="96" t="s">
         <v>45</v>
       </c>
@@ -11606,7 +12915,7 @@
       <c r="I30" s="79"/>
       <c r="J30" s="80"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="97">
         <v>0.5</v>
       </c>
@@ -11627,7 +12936,7 @@
       <c r="I31" s="81"/>
       <c r="J31" s="82"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="83"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
@@ -11638,7 +12947,7 @@
       <c r="I32" s="81"/>
       <c r="J32" s="82"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="83"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
@@ -11649,7 +12958,7 @@
       <c r="I33" s="81"/>
       <c r="J33" s="82"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="83"/>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
@@ -11660,7 +12969,7 @@
       <c r="I34" s="81"/>
       <c r="J34" s="82"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="83"/>
       <c r="C35" s="81"/>
       <c r="D35" s="81"/>
@@ -11671,7 +12980,7 @@
       <c r="I35" s="81"/>
       <c r="J35" s="82"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="83"/>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
@@ -11682,7 +12991,7 @@
       <c r="I36" s="81"/>
       <c r="J36" s="82"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="83"/>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
@@ -11693,7 +13002,7 @@
       <c r="I37" s="81"/>
       <c r="J37" s="82"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="83"/>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
@@ -11704,7 +13013,7 @@
       <c r="I38" s="81"/>
       <c r="J38" s="82"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="83"/>
       <c r="C39" s="81"/>
       <c r="D39" s="81"/>
@@ -11715,7 +13024,7 @@
       <c r="I39" s="81"/>
       <c r="J39" s="82"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="83"/>
       <c r="C40" s="81"/>
       <c r="D40" s="81"/>
@@ -11726,7 +13035,7 @@
       <c r="I40" s="81"/>
       <c r="J40" s="82"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="83"/>
       <c r="C41" s="81"/>
       <c r="D41" s="81"/>
@@ -11737,7 +13046,7 @@
       <c r="I41" s="81"/>
       <c r="J41" s="82"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="84"/>
       <c r="C42" s="85"/>
       <c r="D42" s="85"/>
@@ -11748,8 +13057,8 @@
       <c r="I42" s="85"/>
       <c r="J42" s="86"/>
     </row>
-    <row r="43" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="44" spans="2:10">
+    <row r="43" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="96" t="s">
         <v>45</v>
       </c>
@@ -11766,11 +13075,13 @@
         <v>114</v>
       </c>
       <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="H44" s="79" t="s">
+        <v>284</v>
+      </c>
       <c r="I44" s="79"/>
       <c r="J44" s="80"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="97">
         <v>0.5</v>
       </c>
@@ -11783,15 +13094,15 @@
       <c r="E45" s="92">
         <v>0</v>
       </c>
-      <c r="F45" s="93">
-        <v>0</v>
+      <c r="F45" s="93" t="s">
+        <v>281</v>
       </c>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
       <c r="I45" s="81"/>
       <c r="J45" s="82"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="83"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
@@ -11802,18 +13113,22 @@
       <c r="I46" s="81"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="83"/>
       <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
+      <c r="D47" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="102" t="s">
+        <v>279</v>
+      </c>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
       <c r="H47" s="81"/>
       <c r="I47" s="81"/>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="83"/>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
@@ -11824,8 +13139,10 @@
       <c r="I48" s="81"/>
       <c r="J48" s="82"/>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="83"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="83" t="s">
+        <v>278</v>
+      </c>
       <c r="C49" s="81"/>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
@@ -11835,18 +13152,20 @@
       <c r="I49" s="81"/>
       <c r="J49" s="82"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="83"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
+      <c r="F50" s="102" t="s">
+        <v>282</v>
+      </c>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
       <c r="I50" s="81"/>
       <c r="J50" s="82"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="83"/>
       <c r="C51" s="81"/>
       <c r="D51" s="81"/>
@@ -11857,7 +13176,7 @@
       <c r="I51" s="81"/>
       <c r="J51" s="82"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="83"/>
       <c r="C52" s="81"/>
       <c r="D52" s="81"/>
@@ -11868,7 +13187,7 @@
       <c r="I52" s="81"/>
       <c r="J52" s="82"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="83"/>
       <c r="C53" s="81"/>
       <c r="D53" s="81"/>
@@ -11879,18 +13198,22 @@
       <c r="I53" s="81"/>
       <c r="J53" s="82"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="83"/>
       <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
+      <c r="D54" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="102" t="s">
+        <v>283</v>
+      </c>
       <c r="F54" s="81"/>
       <c r="G54" s="81"/>
       <c r="H54" s="81"/>
       <c r="I54" s="81"/>
       <c r="J54" s="82"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="83"/>
       <c r="C55" s="81"/>
       <c r="D55" s="81"/>
@@ -11901,7 +13224,7 @@
       <c r="I55" s="81"/>
       <c r="J55" s="82"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="84"/>
       <c r="C56" s="85"/>
       <c r="D56" s="85"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\curvesim\research\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9474494D18547D44A3E559657BE4A97295AE05CD" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3C41936A-EC69-45DE-9465-80D5850ED071}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="28452" windowHeight="12036" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -25,12 +19,12 @@
     <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId10"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="289">
   <si>
     <t>DT</t>
   </si>
@@ -1051,26 +1045,6 @@
     <t>The total primary transit duration (first to fourth contact). I.e. from beginning of ingress till end of egress.</t>
   </si>
   <si>
-    <t>Typische Exoplanet Information.</t>
-  </si>
-  <si>
-    <r>
-      <t>a, e, i, ω
-Ω=270°, nu=270° @ T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>T</t>
     </r>
@@ -1225,21 +1199,39 @@
   <si>
     <t>L stimmt nur ungefähr.</t>
   </si>
+  <si>
+    <t>EXOFASTv2 - exoplanet modeling code - explains all parameters!.pdf</t>
+  </si>
+  <si>
+    <t>Alte Vermutung von Uli. Typische Exoplanet Information.</t>
+  </si>
+  <si>
+    <t>a, e, i, ω, Ω</t>
+  </si>
+  <si>
+    <t>nu = -ω -90° @ TT</t>
+  </si>
+  <si>
+    <t>a, e, i, ω, Ω=270°</t>
+  </si>
+  <si>
+    <t>nu=270° @ TT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1350,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1710,24 +1709,24 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,12 +1936,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Link" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1977,7 +1979,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2030,7 @@
         <xdr:cNvPr id="57" name="Gruppieren 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,8 +2038,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7934325" y="1628775"/>
-          <a:ext cx="4761525" cy="4761525"/>
+          <a:off x="8029575" y="1628775"/>
+          <a:ext cx="4799625" cy="4761525"/>
           <a:chOff x="7934325" y="1552575"/>
           <a:chExt cx="4761525" cy="4761525"/>
         </a:xfrm>
@@ -2047,7 +2049,7 @@
           <xdr:cNvPr id="7" name="Ellipse 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2092,7 +2094,7 @@
           <xdr:cNvPr id="8" name="Ellipse 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2157,7 +2159,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2203,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2247,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2293,7 @@
         <xdr:cNvPr id="6" name="Ellipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2358,7 @@
         <xdr:cNvPr id="10" name="Gerade Verbindung 9" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2414,7 @@
         <xdr:cNvPr id="12" name="Gerade Verbindung 11" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2471,7 @@
         <xdr:cNvPr id="15" name="Gerade Verbindung 14" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2527,7 @@
         <xdr:cNvPr id="22" name="Textfeld 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2603,7 @@
         <xdr:cNvPr id="23" name="Textfeld 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2698,7 @@
         <xdr:cNvPr id="24" name="Textfeld 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2790,7 @@
         <xdr:cNvPr id="25" name="Textfeld 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2858,7 @@
         <xdr:cNvPr id="26" name="Textfeld 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +2926,7 @@
         <xdr:cNvPr id="27" name="Textfeld 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +3002,7 @@
         <xdr:cNvPr id="30" name="Gerade Verbindung 29" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,7 +3058,7 @@
         <xdr:cNvPr id="33" name="Textfeld 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3126,7 @@
         <xdr:cNvPr id="34" name="Gerade Verbindung 33" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3182,7 @@
         <xdr:cNvPr id="37" name="Textfeld 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3250,7 @@
         <xdr:cNvPr id="38" name="Textfeld 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3318,7 @@
         <xdr:cNvPr id="39" name="Textfeld 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3394,7 @@
         <xdr:cNvPr id="43" name="Bogen 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3464,7 @@
         <xdr:cNvPr id="44" name="Bogen 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3534,7 @@
         <xdr:cNvPr id="45" name="Grafik 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3578,7 @@
         <xdr:cNvPr id="46" name="Textfeld 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3644,7 +3646,7 @@
         <xdr:cNvPr id="48" name="Textfeld 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3722,7 @@
         <xdr:cNvPr id="49" name="Textfeld 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3798,7 @@
         <xdr:cNvPr id="51" name="Gerade Verbindung 50" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +3855,7 @@
         <xdr:cNvPr id="58" name="Grafik 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3897,7 +3899,7 @@
         <xdr:cNvPr id="59" name="Grafik 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3943,7 @@
         <xdr:cNvPr id="61" name="Gerade Verbindung 60" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +4001,7 @@
         <xdr:cNvPr id="71" name="Gerade Verbindung 70" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4058,7 @@
         <xdr:cNvPr id="74" name="Textfeld 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,7 +4166,7 @@
         <xdr:cNvPr id="75" name="Textfeld 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +4277,7 @@
         <xdr:cNvPr id="41" name="Textfeld 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,7 +4347,7 @@
         <xdr:cNvPr id="42" name="Textfeld 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,7 +4417,7 @@
         <xdr:cNvPr id="65" name="Gerade Verbindung 64" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4471,7 +4473,7 @@
         <xdr:cNvPr id="70" name="Textfeld 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4544,7 +4546,7 @@
         <xdr:cNvPr id="72" name="Ellipse 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4613,7 +4615,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4659,7 +4661,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4708,7 +4710,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,7 +4754,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4801,7 +4803,7 @@
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,7 +5027,7 @@
         <xdr:cNvPr id="3" name="Textfeld 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5118,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5267,7 +5269,7 @@
         <xdr:cNvPr id="7" name="Textfeld 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5391,7 +5393,7 @@
         <xdr:cNvPr id="6" name="Textfeld 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,7 +5606,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5650,7 +5652,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5694,7 +5696,7 @@
         <xdr:cNvPr id="5" name="Grafik 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +5740,7 @@
         <xdr:cNvPr id="6" name="Grafik 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5789,7 @@
         <xdr:cNvPr id="53" name="Ellipse 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5855,7 +5857,7 @@
         <xdr:cNvPr id="54" name="Ellipse 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5923,7 +5925,7 @@
         <xdr:cNvPr id="2" name="Ellipse 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5989,7 +5991,7 @@
         <xdr:cNvPr id="9" name="Ellipse 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6055,7 +6057,7 @@
         <xdr:cNvPr id="19" name="Ellipse 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6123,7 +6125,7 @@
         <xdr:cNvPr id="20" name="Ellipse 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6191,7 +6193,7 @@
         <xdr:cNvPr id="21" name="Ellipse 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6257,7 +6259,7 @@
         <xdr:cNvPr id="22" name="Ellipse 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,7 +6325,7 @@
         <xdr:cNvPr id="23" name="Ellipse 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6391,7 +6393,7 @@
         <xdr:cNvPr id="24" name="Ellipse 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6459,7 +6461,7 @@
         <xdr:cNvPr id="25" name="Ellipse 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6525,7 +6527,7 @@
         <xdr:cNvPr id="26" name="Ellipse 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6591,7 +6593,7 @@
         <xdr:cNvPr id="27" name="Ellipse 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6659,7 +6661,7 @@
         <xdr:cNvPr id="28" name="Ellipse 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6727,7 +6729,7 @@
         <xdr:cNvPr id="50" name="Ellipse 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6795,7 +6797,7 @@
         <xdr:cNvPr id="51" name="Ellipse 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6863,7 +6865,7 @@
         <xdr:cNvPr id="52" name="Ellipse 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6931,7 +6933,7 @@
         <xdr:cNvPr id="55" name="Ellipse 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6999,7 +7001,7 @@
         <xdr:cNvPr id="57" name="Ellipse 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7067,7 +7069,7 @@
         <xdr:cNvPr id="58" name="Ellipse 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7133,7 +7135,7 @@
         <xdr:cNvPr id="59" name="Ellipse 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7199,7 +7201,7 @@
         <xdr:cNvPr id="60" name="Ellipse 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7267,7 +7269,7 @@
         <xdr:cNvPr id="61" name="Ellipse 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7335,7 +7337,7 @@
         <xdr:cNvPr id="62" name="Ellipse 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7403,7 +7405,7 @@
         <xdr:cNvPr id="63" name="Ellipse 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7471,7 +7473,7 @@
         <xdr:cNvPr id="64" name="Ellipse 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7537,7 +7539,7 @@
         <xdr:cNvPr id="65" name="Ellipse 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7603,7 +7605,7 @@
         <xdr:cNvPr id="66" name="Ellipse 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7671,7 +7673,7 @@
         <xdr:cNvPr id="67" name="Ellipse 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7739,7 +7741,7 @@
         <xdr:cNvPr id="68" name="Ellipse 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7807,7 +7809,7 @@
         <xdr:cNvPr id="69" name="Ellipse 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7875,7 +7877,7 @@
         <xdr:cNvPr id="70" name="Ellipse 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7941,7 +7943,7 @@
         <xdr:cNvPr id="71" name="Ellipse 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8007,7 +8009,7 @@
         <xdr:cNvPr id="72" name="Ellipse 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8075,7 +8077,7 @@
         <xdr:cNvPr id="73" name="Ellipse 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8143,7 +8145,7 @@
         <xdr:cNvPr id="74" name="Ellipse 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8211,7 +8213,7 @@
         <xdr:cNvPr id="41" name="Ellipse 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84020077-5207-4C35-9B5F-09CE4DA2EA5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84020077-5207-4C35-9B5F-09CE4DA2EA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8279,7 +8281,7 @@
         <xdr:cNvPr id="42" name="Ellipse 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444BD849-5B69-42A7-A8F0-BEEE4F648603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{444BD849-5B69-42A7-A8F0-BEEE4F648603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8347,7 +8349,7 @@
         <xdr:cNvPr id="43" name="Ellipse 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713992BC-0CD3-4EE3-BA2C-760F853F2CE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{713992BC-0CD3-4EE3-BA2C-760F853F2CE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8415,7 +8417,7 @@
         <xdr:cNvPr id="44" name="Ellipse 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AF5CB-C03C-45A9-B989-DF00A6D0014A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C2AF5CB-C03C-45A9-B989-DF00A6D0014A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8483,7 +8485,7 @@
         <xdr:cNvPr id="45" name="Ellipse 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9761C2CF-96C6-4634-8D25-ADAF929BA37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9761C2CF-96C6-4634-8D25-ADAF929BA37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8551,7 +8553,7 @@
         <xdr:cNvPr id="46" name="Ellipse 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61558D-E4B0-45A7-A94F-6DDAAF29350E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE61558D-E4B0-45A7-A94F-6DDAAF29350E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8619,7 +8621,7 @@
         <xdr:cNvPr id="47" name="Ellipse 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE3974-BA75-4D31-AB84-4B7B0CC60AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5FE3974-BA75-4D31-AB84-4B7B0CC60AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8685,7 +8687,7 @@
         <xdr:cNvPr id="48" name="Ellipse 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB87CFC9-A63D-4E6B-9DC1-26100A45F655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB87CFC9-A63D-4E6B-9DC1-26100A45F655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8751,7 +8753,7 @@
         <xdr:cNvPr id="49" name="Ellipse 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E5F1D9-A23B-4E06-B6F8-1A6621E8A489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47E5F1D9-A23B-4E06-B6F8-1A6621E8A489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8819,7 +8821,7 @@
         <xdr:cNvPr id="56" name="Ellipse 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA1CD07-5D6E-4670-BEDC-A5561BF33D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFA1CD07-5D6E-4670-BEDC-A5561BF33D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8887,7 +8889,7 @@
         <xdr:cNvPr id="75" name="Ellipse 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98147E57-312F-4CB0-A9E7-4ADC3FEB3030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98147E57-312F-4CB0-A9E7-4ADC3FEB3030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8941,9 +8943,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8981,9 +8983,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9015,27 +9017,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9067,27 +9051,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9260,21 +9226,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B9:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="G9" t="s">
         <v>4</v>
       </c>
@@ -9290,7 +9256,7 @@
         <v>39.478417604357432</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="G10" t="s">
         <v>5</v>
       </c>
@@ -9304,7 +9270,7 @@
         <v>149597870000</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -9320,7 +9286,7 @@
         <v>3.3479289288137507E+33</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11">
       <c r="B12" s="1">
         <v>12756270</v>
       </c>
@@ -9337,7 +9303,7 @@
         <v>6.6740800000000003E-11</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11">
       <c r="B13" s="2">
         <v>6378135</v>
       </c>
@@ -9354,7 +9320,7 @@
         <v>1.9884E+30</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11">
       <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>10</v>
@@ -9369,7 +9335,7 @@
         <v>5.9720000000000003E+24</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11">
       <c r="B15" s="2"/>
       <c r="G15" t="s">
         <v>8</v>
@@ -9386,7 +9352,7 @@
         <v>1.988405972E+30</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11">
       <c r="B16" s="2"/>
       <c r="G16" t="s">
         <v>11</v>
@@ -9403,7 +9369,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11">
       <c r="B17" s="2"/>
       <c r="G17" t="s">
         <v>12</v>
@@ -9420,7 +9386,7 @@
         <v>31558746.865251575</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11">
       <c r="B18" s="2">
         <v>50000</v>
       </c>
@@ -9442,7 +9408,7 @@
         <v>365.26327390337474</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -9450,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11">
       <c r="B20" s="2">
         <f>B18*B19</f>
         <v>1500000</v>
@@ -9459,7 +9425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11">
       <c r="B21" s="3">
         <f>B20/3600/24</f>
         <v>17.361111111111111</v>
@@ -9482,7 +9448,7 @@
         <v>939951138769.36182</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11">
       <c r="B22" s="2"/>
       <c r="G22" t="s">
         <v>16</v>
@@ -9499,10 +9465,10 @@
         <v>29784.171810836851</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11">
       <c r="B24" s="2"/>
       <c r="G24" t="s">
         <v>19</v>
@@ -9513,7 +9479,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11">
       <c r="B25" s="2"/>
       <c r="G25" t="s">
         <v>18</v>
@@ -9523,7 +9489,7 @@
         <v>149597869999.99948</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11">
       <c r="B26" s="2"/>
       <c r="G26" t="s">
         <v>20</v>
@@ -9540,23 +9506,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.44140625" style="50"/>
-    <col min="7" max="7" width="13.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.44140625" style="50"/>
-    <col min="13" max="13" width="53.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="50"/>
+    <col min="2" max="2" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="50"/>
+    <col min="7" max="7" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="50"/>
+    <col min="13" max="13" width="53.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13">
       <c r="B2" s="44" t="s">
         <v>225</v>
       </c>
@@ -9576,7 +9544,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
@@ -9608,7 +9576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="54" t="s">
         <v>229</v>
       </c>
@@ -9638,7 +9606,7 @@
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -9652,7 +9620,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -9666,7 +9634,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -9680,7 +9648,7 @@
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -9696,25 +9664,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="44.5546875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="60" t="s">
         <v>241</v>
       </c>
@@ -9725,7 +9693,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="13" t="s">
         <v>250</v>
       </c>
@@ -9736,7 +9704,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
         <v>236</v>
       </c>
@@ -9747,7 +9715,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
         <v>235</v>
       </c>
@@ -9756,7 +9724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>238</v>
       </c>
@@ -9767,7 +9735,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
         <v>245</v>
       </c>
@@ -9784,35 +9752,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="L8" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -9820,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -9829,7 +9797,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -9839,7 +9807,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -9849,7 +9817,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
@@ -9859,7 +9827,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -9869,79 +9837,79 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="I40" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="18">
       <c r="G45" s="26" t="s">
         <v>93</v>
       </c>
@@ -9949,7 +9917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="18">
       <c r="G46" s="26" t="s">
         <v>94</v>
       </c>
@@ -9957,7 +9925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="G47" s="26" t="s">
         <v>92</v>
       </c>
@@ -9965,19 +9933,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="15:15">
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:15">
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:15">
       <c r="O51" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A22" r:id="rId1"/>
+    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -9985,32 +9953,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="17" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung"/>
+    <hyperlink ref="A34" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -10018,19 +9986,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10044,7 +10012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10059,7 +10027,7 @@
         <v>88820</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="12">
         <v>16.600000000000001</v>
       </c>
@@ -10082,23 +10050,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="42"/>
-    <col min="3" max="3" width="31.88671875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="42"/>
+    <col min="1" max="1" width="11.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="42"/>
+    <col min="3" max="3" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="61"/>
       <c r="B1" s="68" t="s">
         <v>104</v>
@@ -10106,7 +10074,7 @@
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="62" t="s">
         <v>47</v>
       </c>
@@ -10121,7 +10089,7 @@
         <v>a = 0.38709893  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="62" t="s">
         <v>45</v>
       </c>
@@ -10136,7 +10104,7 @@
         <v>e = 0.20563069  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="62" t="s">
         <v>46</v>
       </c>
@@ -10151,7 +10119,7 @@
         <v>i = 7.00487  # [deg] inclination</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="62" t="s">
         <v>115</v>
       </c>
@@ -10166,7 +10134,7 @@
         <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="62" t="s">
         <v>140</v>
       </c>
@@ -10181,7 +10149,7 @@
         <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="65" t="s">
         <v>114</v>
       </c>
@@ -10196,7 +10164,7 @@
         <v>L = 252.25084  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="61"/>
       <c r="B8" s="68" t="s">
         <v>105</v>
@@ -10204,7 +10172,7 @@
       <c r="C8" s="68"/>
       <c r="D8" s="69"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="62" t="s">
         <v>47</v>
       </c>
@@ -10219,7 +10187,7 @@
         <v>a = 0.72333199  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="62" t="s">
         <v>45</v>
       </c>
@@ -10234,7 +10202,7 @@
         <v>e = 0.00677323  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="62" t="s">
         <v>46</v>
       </c>
@@ -10249,7 +10217,7 @@
         <v>i = 3.39471  # [deg] inclination</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="62" t="s">
         <v>115</v>
       </c>
@@ -10264,7 +10232,7 @@
         <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="62" t="s">
         <v>140</v>
       </c>
@@ -10279,7 +10247,7 @@
         <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="65" t="s">
         <v>114</v>
       </c>
@@ -10294,7 +10262,7 @@
         <v>L = 181.97973  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="61"/>
       <c r="B15" s="68" t="s">
         <v>106</v>
@@ -10302,7 +10270,7 @@
       <c r="C15" s="68"/>
       <c r="D15" s="69"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="62" t="s">
         <v>47</v>
       </c>
@@ -10317,7 +10285,7 @@
         <v>a = 1.00000011  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="62" t="s">
         <v>45</v>
       </c>
@@ -10332,7 +10300,7 @@
         <v>e = 0.01671022  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="62" t="s">
         <v>46</v>
       </c>
@@ -10347,7 +10315,7 @@
         <v>i = 0.00005  # [deg] inclination</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="62" t="s">
         <v>115</v>
       </c>
@@ -10362,7 +10330,7 @@
         <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="62" t="s">
         <v>140</v>
       </c>
@@ -10377,7 +10345,7 @@
         <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
       <c r="A21" s="65" t="s">
         <v>114</v>
       </c>
@@ -10392,7 +10360,7 @@
         <v>L = 100.46435  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="61"/>
       <c r="B22" s="68" t="s">
         <v>107</v>
@@ -10400,7 +10368,7 @@
       <c r="C22" s="68"/>
       <c r="D22" s="69"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="62" t="s">
         <v>47</v>
       </c>
@@ -10415,7 +10383,7 @@
         <v>a = 1.52366231  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="62" t="s">
         <v>45</v>
       </c>
@@ -10430,7 +10398,7 @@
         <v>e = 0.09341233  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="62" t="s">
         <v>46</v>
       </c>
@@ -10445,7 +10413,7 @@
         <v>i = 1.85061  # [deg] inclination</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="62" t="s">
         <v>115</v>
       </c>
@@ -10460,7 +10428,7 @@
         <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="62" t="s">
         <v>140</v>
       </c>
@@ -10475,7 +10443,7 @@
         <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="A28" s="65" t="s">
         <v>114</v>
       </c>
@@ -10490,7 +10458,7 @@
         <v>L = 355.45332  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="61"/>
       <c r="B29" s="68" t="s">
         <v>108</v>
@@ -10498,7 +10466,7 @@
       <c r="C29" s="68"/>
       <c r="D29" s="69"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="62" t="s">
         <v>47</v>
       </c>
@@ -10513,7 +10481,7 @@
         <v>a = 5.20336301  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="62" t="s">
         <v>45</v>
       </c>
@@ -10528,7 +10496,7 @@
         <v>e = 0.04839266  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="62" t="s">
         <v>46</v>
       </c>
@@ -10543,7 +10511,7 @@
         <v>i = 1.30530  # [deg] inclination</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="62" t="s">
         <v>115</v>
       </c>
@@ -10558,7 +10526,7 @@
         <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="62" t="s">
         <v>140</v>
       </c>
@@ -10573,7 +10541,7 @@
         <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="A35" s="65" t="s">
         <v>114</v>
       </c>
@@ -10588,7 +10556,7 @@
         <v>L = 34.40438  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="61"/>
       <c r="B36" s="68" t="s">
         <v>109</v>
@@ -10596,7 +10564,7 @@
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="62" t="s">
         <v>47</v>
       </c>
@@ -10611,7 +10579,7 @@
         <v>a = 9.53707032  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
         <v>45</v>
       </c>
@@ -10626,7 +10594,7 @@
         <v>e = 0.05415060  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="62" t="s">
         <v>46</v>
       </c>
@@ -10641,7 +10609,7 @@
         <v>i = 2.48446  # [deg] inclination</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
         <v>115</v>
       </c>
@@ -10656,7 +10624,7 @@
         <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="62" t="s">
         <v>140</v>
       </c>
@@ -10671,7 +10639,7 @@
         <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="A42" s="65" t="s">
         <v>114</v>
       </c>
@@ -10686,7 +10654,7 @@
         <v>L = 49.94432  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="61"/>
       <c r="B43" s="68" t="s">
         <v>110</v>
@@ -10694,7 +10662,7 @@
       <c r="C43" s="68"/>
       <c r="D43" s="69"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="62" t="s">
         <v>47</v>
       </c>
@@ -10709,7 +10677,7 @@
         <v>a = 19.19126393  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="62" t="s">
         <v>45</v>
       </c>
@@ -10724,7 +10692,7 @@
         <v>e = 0.04716771  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="62" t="s">
         <v>46</v>
       </c>
@@ -10739,7 +10707,7 @@
         <v>i = 0.76986  # [deg] inclination</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="62" t="s">
         <v>115</v>
       </c>
@@ -10754,7 +10722,7 @@
         <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="62" t="s">
         <v>140</v>
       </c>
@@ -10769,7 +10737,7 @@
         <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
       <c r="A49" s="65" t="s">
         <v>114</v>
       </c>
@@ -10784,7 +10752,7 @@
         <v>L = 313.23218  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="61"/>
       <c r="B50" s="68" t="s">
         <v>111</v>
@@ -10792,7 +10760,7 @@
       <c r="C50" s="68"/>
       <c r="D50" s="69"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="62" t="s">
         <v>47</v>
       </c>
@@ -10807,7 +10775,7 @@
         <v>a = 30.06896348  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="62" t="s">
         <v>45</v>
       </c>
@@ -10822,7 +10790,7 @@
         <v>e = 0.00858587  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="62" t="s">
         <v>46</v>
       </c>
@@ -10837,7 +10805,7 @@
         <v>i = 1.76917  # [deg] inclination</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="62" t="s">
         <v>115</v>
       </c>
@@ -10852,7 +10820,7 @@
         <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="62" t="s">
         <v>140</v>
       </c>
@@ -10867,7 +10835,7 @@
         <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
       <c r="A56" s="65" t="s">
         <v>114</v>
       </c>
@@ -10882,7 +10850,7 @@
         <v>L = 304.88003  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="61"/>
       <c r="B57" s="68" t="s">
         <v>112</v>
@@ -10890,7 +10858,7 @@
       <c r="C57" s="68"/>
       <c r="D57" s="69"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="62" t="s">
         <v>47</v>
       </c>
@@ -10905,7 +10873,7 @@
         <v>a = 39.48168677  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="62" t="s">
         <v>45</v>
       </c>
@@ -10920,7 +10888,7 @@
         <v>e = 0.24880766  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="62" t="s">
         <v>46</v>
       </c>
@@ -10935,7 +10903,7 @@
         <v>i = 17.14175  # [deg] inclination</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="62" t="s">
         <v>115</v>
       </c>
@@ -10950,7 +10918,7 @@
         <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="62" t="s">
         <v>140</v>
       </c>
@@ -10965,7 +10933,7 @@
         <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1">
       <c r="A63" s="65" t="s">
         <v>114</v>
       </c>
@@ -10987,17 +10955,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="21" bestFit="1" customWidth="1"/>
@@ -11008,12 +10976,12 @@
     <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="17"/>
       <c r="E2" s="21" t="s">
         <v>83</v>
@@ -11052,7 +11020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -11065,7 +11033,7 @@
       <c r="D3" s="23"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -11079,7 +11047,7 @@
       <c r="N4" s="21"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -11092,7 +11060,7 @@
       <c r="D5" s="23"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -11114,7 +11082,7 @@
       </c>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -11136,7 +11104,7 @@
       </c>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -11175,7 +11143,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -11214,7 +11182,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -11222,7 +11190,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" s="24"/>
       <c r="H10" s="21">
@@ -11253,7 +11221,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="76" t="s">
         <v>47</v>
       </c>
@@ -11297,7 +11265,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="76" t="s">
         <v>46</v>
       </c>
@@ -11338,7 +11306,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="76" t="s">
         <v>45</v>
       </c>
@@ -11361,7 +11329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -11400,7 +11368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -11439,7 +11407,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -11478,7 +11446,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -11517,7 +11485,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -11556,7 +11524,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="18">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -11595,7 +11563,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -11634,7 +11602,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -11675,27 +11643,27 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="D23" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="D24" s="17" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="D23" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="E11" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D23" r:id="rId8"/>
+    <hyperlink ref="D24" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId10"/>
@@ -11703,14 +11671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11718,24 +11686,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="32"/>
+    <col min="1" max="1" width="10.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="39" t="s">
         <v>162</v>
       </c>
@@ -11744,13 +11712,13 @@
         <v>4.3333000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="K2" s="32">
         <f>K1*180/PI()</f>
         <v>2.4827980136403962</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="59" t="s">
         <v>121</v>
       </c>
@@ -11764,7 +11732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="36" t="s">
         <v>136</v>
       </c>
@@ -11776,7 +11744,7 @@
       </c>
       <c r="D4" s="36"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60">
       <c r="A5" s="37" t="s">
         <v>131</v>
       </c>
@@ -11788,7 +11756,7 @@
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="37" t="s">
         <v>115</v>
       </c>
@@ -11796,11 +11764,11 @@
         <v>137</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="37" t="s">
         <v>117</v>
       </c>
@@ -11808,13 +11776,13 @@
         <v>128</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
       <c r="A8" s="37" t="s">
         <v>141</v>
       </c>
@@ -11822,13 +11790,13 @@
         <v>118</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="35" t="s">
         <v>151</v>
       </c>
@@ -11842,7 +11810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18">
       <c r="A10" s="35" t="s">
         <v>233</v>
       </c>
@@ -11854,7 +11822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>148</v>
       </c>
@@ -11864,7 +11832,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="35"/>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="35" t="s">
         <v>155</v>
       </c>
@@ -11874,7 +11842,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="35"/>
     </row>
-    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="120">
       <c r="A13" s="35" t="s">
         <v>149</v>
       </c>
@@ -11885,10 +11853,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
       <c r="A14" s="35" t="s">
         <v>159</v>
       </c>
@@ -11898,7 +11866,7 @@
       <c r="C14" s="37"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="75">
       <c r="A15" s="35" t="s">
         <v>228</v>
       </c>
@@ -11906,13 +11874,13 @@
         <v>116</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="45">
       <c r="A16" s="35" t="s">
         <v>145</v>
       </c>
@@ -11926,7 +11894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="60">
       <c r="A17" s="37" t="s">
         <v>119</v>
       </c>
@@ -11940,7 +11908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="75">
       <c r="A18" s="37" t="s">
         <v>124</v>
       </c>
@@ -11954,7 +11922,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="37" t="s">
         <v>140</v>
       </c>
@@ -11968,7 +11936,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18">
       <c r="A20" s="72" t="s">
         <v>37</v>
       </c>
@@ -11980,7 +11948,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="44.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="48">
       <c r="A21" s="37" t="s">
         <v>249</v>
       </c>
@@ -11988,23 +11956,23 @@
         <v>257</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>267</v>
-      </c>
       <c r="C22" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="73" t="s">
         <v>148</v>
       </c>
@@ -12016,7 +11984,7 @@
       </c>
       <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="35" t="s">
         <v>71</v>
       </c>
@@ -12028,25 +11996,25 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="37"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="57"/>
       <c r="B28" s="58" t="s">
         <v>165</v>
@@ -12058,7 +12026,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="37"/>
       <c r="B29" s="35" t="s">
         <v>163</v>
@@ -12070,69 +12038,75 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>263</v>
+    <row r="30" spans="1:5">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>284</v>
       </c>
       <c r="E30" s="78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="C42" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D29" r:id="rId1"/>
+    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -12140,22 +12114,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="11" max="11" width="1.44140625" customWidth="1"/>
-    <col min="21" max="21" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="21" max="21" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:30">
       <c r="B2" s="87" t="s">
         <v>45</v>
       </c>
@@ -12214,7 +12188,7 @@
       <c r="AC2" s="79"/>
       <c r="AD2" s="80"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30">
       <c r="B3" s="91">
         <v>0</v>
       </c>
@@ -12273,7 +12247,7 @@
       <c r="AC3" s="81"/>
       <c r="AD3" s="82"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30">
       <c r="B4" s="83"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -12302,7 +12276,7 @@
       <c r="AC4" s="81"/>
       <c r="AD4" s="82"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:30">
       <c r="B5" s="83"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
@@ -12331,7 +12305,7 @@
       <c r="AC5" s="81"/>
       <c r="AD5" s="82"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:30">
       <c r="B6" s="83"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
@@ -12360,7 +12334,7 @@
       <c r="AC6" s="81"/>
       <c r="AD6" s="82"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30">
       <c r="B7" s="83"/>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
@@ -12389,7 +12363,7 @@
       <c r="AC7" s="81"/>
       <c r="AD7" s="82"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30">
       <c r="B8" s="83"/>
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
@@ -12418,7 +12392,7 @@
       <c r="AC8" s="81"/>
       <c r="AD8" s="82"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30">
       <c r="B9" s="83"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
@@ -12447,7 +12421,7 @@
       <c r="AC9" s="81"/>
       <c r="AD9" s="82"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30">
       <c r="B10" s="83"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
@@ -12476,7 +12450,7 @@
       <c r="AC10" s="81"/>
       <c r="AD10" s="82"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30">
       <c r="B11" s="83"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
@@ -12505,7 +12479,7 @@
       <c r="AC11" s="81"/>
       <c r="AD11" s="82"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30">
       <c r="B12" s="83"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
@@ -12534,7 +12508,7 @@
       <c r="AC12" s="81"/>
       <c r="AD12" s="82"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30">
       <c r="B13" s="83"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
@@ -12563,7 +12537,7 @@
       <c r="AC13" s="81"/>
       <c r="AD13" s="82"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:30">
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
@@ -12592,8 +12566,8 @@
       <c r="AC14" s="85"/>
       <c r="AD14" s="86"/>
     </row>
-    <row r="15" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:30" ht="7.5" customHeight="1"/>
+    <row r="16" spans="2:30">
       <c r="B16" s="87" t="s">
         <v>45</v>
       </c>
@@ -12633,7 +12607,7 @@
       <c r="S16" s="79"/>
       <c r="T16" s="80"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20">
       <c r="B17" s="91">
         <v>0</v>
       </c>
@@ -12673,7 +12647,7 @@
       <c r="S17" s="81"/>
       <c r="T17" s="82"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20">
       <c r="B18" s="83"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
@@ -12693,7 +12667,7 @@
       <c r="S18" s="81"/>
       <c r="T18" s="82"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20">
       <c r="B19" s="83"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -12713,7 +12687,7 @@
       <c r="S19" s="81"/>
       <c r="T19" s="82"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20">
       <c r="B20" s="83"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -12733,7 +12707,7 @@
       <c r="S20" s="81"/>
       <c r="T20" s="82"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20">
       <c r="B21" s="83"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -12753,7 +12727,7 @@
       <c r="S21" s="81"/>
       <c r="T21" s="82"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20">
       <c r="B22" s="83"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -12773,7 +12747,7 @@
       <c r="S22" s="81"/>
       <c r="T22" s="82"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="83"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -12793,7 +12767,7 @@
       <c r="S23" s="81"/>
       <c r="T23" s="82"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20">
       <c r="B24" s="83"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -12813,7 +12787,7 @@
       <c r="S24" s="81"/>
       <c r="T24" s="82"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="83"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -12833,7 +12807,7 @@
       <c r="S25" s="81"/>
       <c r="T25" s="82"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="83"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -12853,7 +12827,7 @@
       <c r="S26" s="81"/>
       <c r="T26" s="82"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="83"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -12873,7 +12847,7 @@
       <c r="S27" s="81"/>
       <c r="T27" s="82"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="84"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
@@ -12893,8 +12867,8 @@
       <c r="S28" s="85"/>
       <c r="T28" s="86"/>
     </row>
-    <row r="29" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="7.5" customHeight="1"/>
+    <row r="30" spans="2:20">
       <c r="B30" s="96" t="s">
         <v>45</v>
       </c>
@@ -12915,7 +12889,7 @@
       <c r="I30" s="79"/>
       <c r="J30" s="80"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20">
       <c r="B31" s="97">
         <v>0.5</v>
       </c>
@@ -12936,7 +12910,7 @@
       <c r="I31" s="81"/>
       <c r="J31" s="82"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20">
       <c r="B32" s="83"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
@@ -12947,7 +12921,7 @@
       <c r="I32" s="81"/>
       <c r="J32" s="82"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="83"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
@@ -12958,7 +12932,7 @@
       <c r="I33" s="81"/>
       <c r="J33" s="82"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" s="83"/>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
@@ -12969,7 +12943,7 @@
       <c r="I34" s="81"/>
       <c r="J34" s="82"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="83"/>
       <c r="C35" s="81"/>
       <c r="D35" s="81"/>
@@ -12980,7 +12954,7 @@
       <c r="I35" s="81"/>
       <c r="J35" s="82"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" s="83"/>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
@@ -12991,7 +12965,7 @@
       <c r="I36" s="81"/>
       <c r="J36" s="82"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" s="83"/>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
@@ -13002,7 +12976,7 @@
       <c r="I37" s="81"/>
       <c r="J37" s="82"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" s="83"/>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
@@ -13013,7 +12987,7 @@
       <c r="I38" s="81"/>
       <c r="J38" s="82"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="83"/>
       <c r="C39" s="81"/>
       <c r="D39" s="81"/>
@@ -13024,7 +12998,7 @@
       <c r="I39" s="81"/>
       <c r="J39" s="82"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="83"/>
       <c r="C40" s="81"/>
       <c r="D40" s="81"/>
@@ -13035,7 +13009,7 @@
       <c r="I40" s="81"/>
       <c r="J40" s="82"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" s="83"/>
       <c r="C41" s="81"/>
       <c r="D41" s="81"/>
@@ -13046,7 +13020,7 @@
       <c r="I41" s="81"/>
       <c r="J41" s="82"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" s="84"/>
       <c r="C42" s="85"/>
       <c r="D42" s="85"/>
@@ -13057,8 +13031,8 @@
       <c r="I42" s="85"/>
       <c r="J42" s="86"/>
     </row>
-    <row r="43" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="44" spans="2:10">
       <c r="B44" s="96" t="s">
         <v>45</v>
       </c>
@@ -13076,12 +13050,12 @@
       </c>
       <c r="G44" s="79"/>
       <c r="H44" s="79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I44" s="79"/>
       <c r="J44" s="80"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" s="97">
         <v>0.5</v>
       </c>
@@ -13095,14 +13069,14 @@
         <v>0</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
       <c r="I45" s="81"/>
       <c r="J45" s="82"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" s="83"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
@@ -13113,14 +13087,14 @@
       <c r="I46" s="81"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" s="83"/>
       <c r="C47" s="81"/>
       <c r="D47" s="81" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E47" s="102" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
@@ -13128,7 +13102,7 @@
       <c r="I47" s="81"/>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" s="83"/>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
@@ -13139,9 +13113,9 @@
       <c r="I48" s="81"/>
       <c r="J48" s="82"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C49" s="81"/>
       <c r="D49" s="81"/>
@@ -13152,20 +13126,20 @@
       <c r="I49" s="81"/>
       <c r="J49" s="82"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" s="83"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
       <c r="F50" s="102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G50" s="81"/>
       <c r="H50" s="81"/>
       <c r="I50" s="81"/>
       <c r="J50" s="82"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" s="83"/>
       <c r="C51" s="81"/>
       <c r="D51" s="81"/>
@@ -13176,7 +13150,7 @@
       <c r="I51" s="81"/>
       <c r="J51" s="82"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" s="83"/>
       <c r="C52" s="81"/>
       <c r="D52" s="81"/>
@@ -13187,7 +13161,7 @@
       <c r="I52" s="81"/>
       <c r="J52" s="82"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" s="83"/>
       <c r="C53" s="81"/>
       <c r="D53" s="81"/>
@@ -13198,14 +13172,14 @@
       <c r="I53" s="81"/>
       <c r="J53" s="82"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" s="83"/>
       <c r="C54" s="81"/>
       <c r="D54" s="81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E54" s="102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F54" s="81"/>
       <c r="G54" s="81"/>
@@ -13213,7 +13187,7 @@
       <c r="I54" s="81"/>
       <c r="J54" s="82"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" s="83"/>
       <c r="C55" s="81"/>
       <c r="D55" s="81"/>
@@ -13224,7 +13198,7 @@
       <c r="I55" s="81"/>
       <c r="J55" s="82"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" s="84"/>
       <c r="C56" s="85"/>
       <c r="D56" s="85"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\curvesim\research\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C60CB9CBE0915345C387FA26BDC5EC347CBD953F" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD1E1D85-17E0-4F86-9734-4D7CF6875560}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28455" windowHeight="12030" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="28452" windowHeight="12036" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
     <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId10"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1221,17 +1227,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,7 +1715,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1718,15 +1724,15 @@
   </cellStyleXfs>
   <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1941,10 +1947,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1979,7 +1985,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2036,7 @@
         <xdr:cNvPr id="57" name="Gruppieren 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2055,7 @@
           <xdr:cNvPr id="7" name="Ellipse 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2094,7 +2100,7 @@
           <xdr:cNvPr id="8" name="Ellipse 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2159,7 +2165,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2209,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2253,7 @@
         <xdr:cNvPr id="5" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2299,7 @@
         <xdr:cNvPr id="6" name="Ellipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2364,7 @@
         <xdr:cNvPr id="10" name="Gerade Verbindung 9" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2420,7 @@
         <xdr:cNvPr id="12" name="Gerade Verbindung 11" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2477,7 @@
         <xdr:cNvPr id="15" name="Gerade Verbindung 14" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2533,7 @@
         <xdr:cNvPr id="22" name="Textfeld 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2609,7 @@
         <xdr:cNvPr id="23" name="Textfeld 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2704,7 @@
         <xdr:cNvPr id="24" name="Textfeld 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2796,7 @@
         <xdr:cNvPr id="25" name="Textfeld 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2864,7 @@
         <xdr:cNvPr id="26" name="Textfeld 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2932,7 @@
         <xdr:cNvPr id="27" name="Textfeld 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3008,7 @@
         <xdr:cNvPr id="30" name="Gerade Verbindung 29" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3064,7 @@
         <xdr:cNvPr id="33" name="Textfeld 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3126,7 +3132,7 @@
         <xdr:cNvPr id="34" name="Gerade Verbindung 33" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3182,7 +3188,7 @@
         <xdr:cNvPr id="37" name="Textfeld 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3256,7 @@
         <xdr:cNvPr id="38" name="Textfeld 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3324,7 @@
         <xdr:cNvPr id="39" name="Textfeld 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3400,7 @@
         <xdr:cNvPr id="43" name="Bogen 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3470,7 @@
         <xdr:cNvPr id="44" name="Bogen 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,7 +3540,7 @@
         <xdr:cNvPr id="45" name="Grafik 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3584,7 @@
         <xdr:cNvPr id="46" name="Textfeld 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3652,7 @@
         <xdr:cNvPr id="48" name="Textfeld 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3728,7 @@
         <xdr:cNvPr id="49" name="Textfeld 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3804,7 @@
         <xdr:cNvPr id="51" name="Gerade Verbindung 50" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +3861,7 @@
         <xdr:cNvPr id="58" name="Grafik 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3905,7 @@
         <xdr:cNvPr id="59" name="Grafik 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +3949,7 @@
         <xdr:cNvPr id="61" name="Gerade Verbindung 60" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +4007,7 @@
         <xdr:cNvPr id="71" name="Gerade Verbindung 70" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4058,7 +4064,7 @@
         <xdr:cNvPr id="74" name="Textfeld 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4166,7 +4172,7 @@
         <xdr:cNvPr id="75" name="Textfeld 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,7 +4283,7 @@
         <xdr:cNvPr id="41" name="Textfeld 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4347,7 +4353,7 @@
         <xdr:cNvPr id="42" name="Textfeld 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,7 +4423,7 @@
         <xdr:cNvPr id="65" name="Gerade Verbindung 64" descr="rB">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,7 +4479,7 @@
         <xdr:cNvPr id="70" name="Textfeld 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4546,7 +4552,7 @@
         <xdr:cNvPr id="72" name="Ellipse 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,7 +4621,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4667,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4710,7 +4716,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4754,7 +4760,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,7 +4809,7 @@
         <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5027,7 +5033,7 @@
         <xdr:cNvPr id="3" name="Textfeld 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5118,7 +5124,7 @@
         <xdr:cNvPr id="5" name="Textfeld 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5269,7 +5275,7 @@
         <xdr:cNvPr id="7" name="Textfeld 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5399,7 @@
         <xdr:cNvPr id="6" name="Textfeld 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5583,6 +5589,127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3820E8-5F9E-406D-9772-6B1AA04EAEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6766560"/>
+          <a:ext cx="5547360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Orbital Obliquity </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>λ:</a:t>
+          </a:r>
+          <a:endParaRPr lang="da-DK" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ngle between the axes of the planet's orbit and the star's spin. Often just calles misalignment.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5606,7 +5733,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5652,7 +5779,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5696,7 +5823,7 @@
         <xdr:cNvPr id="5" name="Grafik 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5740,7 +5867,7 @@
         <xdr:cNvPr id="6" name="Grafik 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5789,7 +5916,7 @@
         <xdr:cNvPr id="53" name="Ellipse 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5857,7 +5984,7 @@
         <xdr:cNvPr id="54" name="Ellipse 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5925,7 +6052,7 @@
         <xdr:cNvPr id="2" name="Ellipse 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5991,7 +6118,7 @@
         <xdr:cNvPr id="9" name="Ellipse 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6057,7 +6184,7 @@
         <xdr:cNvPr id="19" name="Ellipse 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6125,7 +6252,7 @@
         <xdr:cNvPr id="20" name="Ellipse 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6193,7 +6320,7 @@
         <xdr:cNvPr id="21" name="Ellipse 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6259,7 +6386,7 @@
         <xdr:cNvPr id="22" name="Ellipse 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6325,7 +6452,7 @@
         <xdr:cNvPr id="23" name="Ellipse 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6393,7 +6520,7 @@
         <xdr:cNvPr id="24" name="Ellipse 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6461,7 +6588,7 @@
         <xdr:cNvPr id="25" name="Ellipse 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6527,7 +6654,7 @@
         <xdr:cNvPr id="26" name="Ellipse 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6593,7 +6720,7 @@
         <xdr:cNvPr id="27" name="Ellipse 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6661,7 +6788,7 @@
         <xdr:cNvPr id="28" name="Ellipse 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6729,7 +6856,7 @@
         <xdr:cNvPr id="50" name="Ellipse 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6797,7 +6924,7 @@
         <xdr:cNvPr id="51" name="Ellipse 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6865,7 +6992,7 @@
         <xdr:cNvPr id="52" name="Ellipse 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6933,7 +7060,7 @@
         <xdr:cNvPr id="55" name="Ellipse 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7001,7 +7128,7 @@
         <xdr:cNvPr id="57" name="Ellipse 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7069,7 +7196,7 @@
         <xdr:cNvPr id="58" name="Ellipse 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7135,7 +7262,7 @@
         <xdr:cNvPr id="59" name="Ellipse 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7201,7 +7328,7 @@
         <xdr:cNvPr id="60" name="Ellipse 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7269,7 +7396,7 @@
         <xdr:cNvPr id="61" name="Ellipse 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7337,7 +7464,7 @@
         <xdr:cNvPr id="62" name="Ellipse 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7405,7 +7532,7 @@
         <xdr:cNvPr id="63" name="Ellipse 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7473,7 +7600,7 @@
         <xdr:cNvPr id="64" name="Ellipse 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7539,7 +7666,7 @@
         <xdr:cNvPr id="65" name="Ellipse 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7605,7 +7732,7 @@
         <xdr:cNvPr id="66" name="Ellipse 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7673,7 +7800,7 @@
         <xdr:cNvPr id="67" name="Ellipse 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7741,7 +7868,7 @@
         <xdr:cNvPr id="68" name="Ellipse 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7809,7 +7936,7 @@
         <xdr:cNvPr id="69" name="Ellipse 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7877,7 +8004,7 @@
         <xdr:cNvPr id="70" name="Ellipse 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7943,7 +8070,7 @@
         <xdr:cNvPr id="71" name="Ellipse 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,7 +8136,7 @@
         <xdr:cNvPr id="72" name="Ellipse 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8077,7 +8204,7 @@
         <xdr:cNvPr id="73" name="Ellipse 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8145,7 +8272,7 @@
         <xdr:cNvPr id="74" name="Ellipse 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8213,7 +8340,7 @@
         <xdr:cNvPr id="41" name="Ellipse 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84020077-5207-4C35-9B5F-09CE4DA2EA5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84020077-5207-4C35-9B5F-09CE4DA2EA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8281,7 +8408,7 @@
         <xdr:cNvPr id="42" name="Ellipse 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{444BD849-5B69-42A7-A8F0-BEEE4F648603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444BD849-5B69-42A7-A8F0-BEEE4F648603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8349,7 +8476,7 @@
         <xdr:cNvPr id="43" name="Ellipse 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{713992BC-0CD3-4EE3-BA2C-760F853F2CE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713992BC-0CD3-4EE3-BA2C-760F853F2CE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8417,7 +8544,7 @@
         <xdr:cNvPr id="44" name="Ellipse 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C2AF5CB-C03C-45A9-B989-DF00A6D0014A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AF5CB-C03C-45A9-B989-DF00A6D0014A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8485,7 +8612,7 @@
         <xdr:cNvPr id="45" name="Ellipse 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9761C2CF-96C6-4634-8D25-ADAF929BA37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9761C2CF-96C6-4634-8D25-ADAF929BA37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8553,7 +8680,7 @@
         <xdr:cNvPr id="46" name="Ellipse 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE61558D-E4B0-45A7-A94F-6DDAAF29350E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61558D-E4B0-45A7-A94F-6DDAAF29350E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8621,7 +8748,7 @@
         <xdr:cNvPr id="47" name="Ellipse 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5FE3974-BA75-4D31-AB84-4B7B0CC60AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE3974-BA75-4D31-AB84-4B7B0CC60AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8687,7 +8814,7 @@
         <xdr:cNvPr id="48" name="Ellipse 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB87CFC9-A63D-4E6B-9DC1-26100A45F655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB87CFC9-A63D-4E6B-9DC1-26100A45F655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8753,7 +8880,7 @@
         <xdr:cNvPr id="49" name="Ellipse 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47E5F1D9-A23B-4E06-B6F8-1A6621E8A489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E5F1D9-A23B-4E06-B6F8-1A6621E8A489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8821,7 +8948,7 @@
         <xdr:cNvPr id="56" name="Ellipse 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFA1CD07-5D6E-4670-BEDC-A5561BF33D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA1CD07-5D6E-4670-BEDC-A5561BF33D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8889,7 +9016,7 @@
         <xdr:cNvPr id="75" name="Ellipse 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98147E57-312F-4CB0-A9E7-4ADC3FEB3030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98147E57-312F-4CB0-A9E7-4ADC3FEB3030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8943,9 +9070,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8983,9 +9110,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9017,9 +9144,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9051,9 +9196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9226,21 +9389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B9:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>4</v>
       </c>
@@ -9256,7 +9419,7 @@
         <v>39.478417604357432</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>5</v>
       </c>
@@ -9270,7 +9433,7 @@
         <v>149597870000</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -9286,7 +9449,7 @@
         <v>3.3479289288137507E+33</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>12756270</v>
       </c>
@@ -9303,7 +9466,7 @@
         <v>6.6740800000000003E-11</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>6378135</v>
       </c>
@@ -9320,7 +9483,7 @@
         <v>1.9884E+30</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>10</v>
@@ -9335,7 +9498,7 @@
         <v>5.9720000000000003E+24</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="G15" t="s">
         <v>8</v>
@@ -9352,7 +9515,7 @@
         <v>1.988405972E+30</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="G16" t="s">
         <v>11</v>
@@ -9369,7 +9532,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="G17" t="s">
         <v>12</v>
@@ -9386,7 +9549,7 @@
         <v>31558746.865251575</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>50000</v>
       </c>
@@ -9408,7 +9571,7 @@
         <v>365.26327390337474</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -9416,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f>B18*B19</f>
         <v>1500000</v>
@@ -9425,7 +9588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f>B20/3600/24</f>
         <v>17.361111111111111</v>
@@ -9448,7 +9611,7 @@
         <v>939951138769.36182</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="G22" t="s">
         <v>16</v>
@@ -9465,10 +9628,10 @@
         <v>29784.171810836851</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="G24" t="s">
         <v>19</v>
@@ -9479,7 +9642,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="G25" t="s">
         <v>18</v>
@@ -9489,7 +9652,7 @@
         <v>149597869999.99948</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="G26" t="s">
         <v>20</v>
@@ -9506,25 +9669,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="50"/>
-    <col min="13" max="13" width="53.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="12.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.44140625" style="50"/>
+    <col min="7" max="7" width="13.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" style="50"/>
+    <col min="13" max="13" width="53.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
         <v>225</v>
       </c>
@@ -9544,7 +9707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
@@ -9576,7 +9739,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
         <v>229</v>
       </c>
@@ -9606,7 +9769,7 @@
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -9620,7 +9783,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -9634,7 +9797,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -9648,7 +9811,7 @@
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -9664,25 +9827,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>241</v>
       </c>
@@ -9693,7 +9856,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>250</v>
       </c>
@@ -9704,7 +9867,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>236</v>
       </c>
@@ -9715,7 +9878,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>235</v>
       </c>
@@ -9724,7 +9887,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>238</v>
       </c>
@@ -9735,7 +9898,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>245</v>
       </c>
@@ -9752,35 +9915,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L8" s="9"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -9788,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -9797,7 +9960,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -9807,7 +9970,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -9817,7 +9980,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
@@ -9827,7 +9990,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -9837,79 +10000,79 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I40" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="18">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G45" s="26" t="s">
         <v>93</v>
       </c>
@@ -9917,7 +10080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G46" s="26" t="s">
         <v>94</v>
       </c>
@@ -9925,7 +10088,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G47" s="26" t="s">
         <v>92</v>
       </c>
@@ -9933,19 +10096,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="15:15">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="15:15">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="15:15">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
-    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -9953,32 +10116,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung"/>
-    <hyperlink ref="A34" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -9986,19 +10149,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10012,7 +10175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10027,7 +10190,7 @@
         <v>88820</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>16.600000000000001</v>
       </c>
@@ -10050,23 +10213,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="42"/>
-    <col min="3" max="3" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="42"/>
+    <col min="1" max="1" width="11.44140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="42"/>
+    <col min="3" max="3" width="31.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
       <c r="B1" s="68" t="s">
         <v>104</v>
@@ -10074,7 +10237,7 @@
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>47</v>
       </c>
@@ -10089,7 +10252,7 @@
         <v>a = 0.38709893  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>45</v>
       </c>
@@ -10104,7 +10267,7 @@
         <v>e = 0.20563069  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>46</v>
       </c>
@@ -10119,7 +10282,7 @@
         <v>i = 7.00487  # [deg] inclination</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>115</v>
       </c>
@@ -10134,7 +10297,7 @@
         <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>140</v>
       </c>
@@ -10149,7 +10312,7 @@
         <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
         <v>114</v>
       </c>
@@ -10164,7 +10327,7 @@
         <v>L = 252.25084  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="68" t="s">
         <v>105</v>
@@ -10172,7 +10335,7 @@
       <c r="C8" s="68"/>
       <c r="D8" s="69"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>47</v>
       </c>
@@ -10187,7 +10350,7 @@
         <v>a = 0.72333199  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>45</v>
       </c>
@@ -10202,7 +10365,7 @@
         <v>e = 0.00677323  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>46</v>
       </c>
@@ -10217,7 +10380,7 @@
         <v>i = 3.39471  # [deg] inclination</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
         <v>115</v>
       </c>
@@ -10232,7 +10395,7 @@
         <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>140</v>
       </c>
@@ -10247,7 +10410,7 @@
         <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
         <v>114</v>
       </c>
@@ -10262,7 +10425,7 @@
         <v>L = 181.97973  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="61"/>
       <c r="B15" s="68" t="s">
         <v>106</v>
@@ -10270,7 +10433,7 @@
       <c r="C15" s="68"/>
       <c r="D15" s="69"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
         <v>47</v>
       </c>
@@ -10285,7 +10448,7 @@
         <v>a = 1.00000011  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>45</v>
       </c>
@@ -10300,7 +10463,7 @@
         <v>e = 0.01671022  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>46</v>
       </c>
@@ -10315,7 +10478,7 @@
         <v>i = 0.00005  # [deg] inclination</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>115</v>
       </c>
@@ -10330,7 +10493,7 @@
         <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>140</v>
       </c>
@@ -10345,7 +10508,7 @@
         <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
         <v>114</v>
       </c>
@@ -10360,7 +10523,7 @@
         <v>L = 100.46435  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="61"/>
       <c r="B22" s="68" t="s">
         <v>107</v>
@@ -10368,7 +10531,7 @@
       <c r="C22" s="68"/>
       <c r="D22" s="69"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>47</v>
       </c>
@@ -10383,7 +10546,7 @@
         <v>a = 1.52366231  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>45</v>
       </c>
@@ -10398,7 +10561,7 @@
         <v>e = 0.09341233  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>46</v>
       </c>
@@ -10413,7 +10576,7 @@
         <v>i = 1.85061  # [deg] inclination</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>115</v>
       </c>
@@ -10428,7 +10591,7 @@
         <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>140</v>
       </c>
@@ -10443,7 +10606,7 @@
         <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
         <v>114</v>
       </c>
@@ -10458,7 +10621,7 @@
         <v>L = 355.45332  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="68" t="s">
         <v>108</v>
@@ -10466,7 +10629,7 @@
       <c r="C29" s="68"/>
       <c r="D29" s="69"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>47</v>
       </c>
@@ -10481,7 +10644,7 @@
         <v>a = 5.20336301  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>45</v>
       </c>
@@ -10496,7 +10659,7 @@
         <v>e = 0.04839266  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>46</v>
       </c>
@@ -10511,7 +10674,7 @@
         <v>i = 1.30530  # [deg] inclination</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>115</v>
       </c>
@@ -10526,7 +10689,7 @@
         <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
         <v>140</v>
       </c>
@@ -10541,7 +10704,7 @@
         <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
         <v>114</v>
       </c>
@@ -10556,7 +10719,7 @@
         <v>L = 34.40438  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="61"/>
       <c r="B36" s="68" t="s">
         <v>109</v>
@@ -10564,7 +10727,7 @@
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>47</v>
       </c>
@@ -10579,7 +10742,7 @@
         <v>a = 9.53707032  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="62" t="s">
         <v>45</v>
       </c>
@@ -10594,7 +10757,7 @@
         <v>e = 0.05415060  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="62" t="s">
         <v>46</v>
       </c>
@@ -10609,7 +10772,7 @@
         <v>i = 2.48446  # [deg] inclination</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="62" t="s">
         <v>115</v>
       </c>
@@ -10624,7 +10787,7 @@
         <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="62" t="s">
         <v>140</v>
       </c>
@@ -10639,7 +10802,7 @@
         <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
         <v>114</v>
       </c>
@@ -10654,7 +10817,7 @@
         <v>L = 49.94432  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="61"/>
       <c r="B43" s="68" t="s">
         <v>110</v>
@@ -10662,7 +10825,7 @@
       <c r="C43" s="68"/>
       <c r="D43" s="69"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="62" t="s">
         <v>47</v>
       </c>
@@ -10677,7 +10840,7 @@
         <v>a = 19.19126393  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>45</v>
       </c>
@@ -10692,7 +10855,7 @@
         <v>e = 0.04716771  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
         <v>46</v>
       </c>
@@ -10707,7 +10870,7 @@
         <v>i = 0.76986  # [deg] inclination</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
         <v>115</v>
       </c>
@@ -10722,7 +10885,7 @@
         <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>140</v>
       </c>
@@ -10737,7 +10900,7 @@
         <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="65" t="s">
         <v>114</v>
       </c>
@@ -10752,7 +10915,7 @@
         <v>L = 313.23218  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="68" t="s">
         <v>111</v>
@@ -10760,7 +10923,7 @@
       <c r="C50" s="68"/>
       <c r="D50" s="69"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>47</v>
       </c>
@@ -10775,7 +10938,7 @@
         <v>a = 30.06896348  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>45</v>
       </c>
@@ -10790,7 +10953,7 @@
         <v>e = 0.00858587  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>46</v>
       </c>
@@ -10805,7 +10968,7 @@
         <v>i = 1.76917  # [deg] inclination</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>115</v>
       </c>
@@ -10820,7 +10983,7 @@
         <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>140</v>
       </c>
@@ -10835,7 +10998,7 @@
         <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="65" t="s">
         <v>114</v>
       </c>
@@ -10850,7 +11013,7 @@
         <v>L = 304.88003  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="61"/>
       <c r="B57" s="68" t="s">
         <v>112</v>
@@ -10858,7 +11021,7 @@
       <c r="C57" s="68"/>
       <c r="D57" s="69"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="62" t="s">
         <v>47</v>
       </c>
@@ -10873,7 +11036,7 @@
         <v>a = 39.48168677  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="62" t="s">
         <v>45</v>
       </c>
@@ -10888,7 +11051,7 @@
         <v>e = 0.24880766  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
         <v>46</v>
       </c>
@@ -10903,7 +11066,7 @@
         <v>i = 17.14175  # [deg] inclination</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
         <v>115</v>
       </c>
@@ -10918,7 +11081,7 @@
         <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="s">
         <v>140</v>
       </c>
@@ -10933,7 +11096,7 @@
         <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="65" t="s">
         <v>114</v>
       </c>
@@ -10955,17 +11118,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="21" bestFit="1" customWidth="1"/>
@@ -10976,12 +11139,12 @@
     <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="E2" s="21" t="s">
         <v>83</v>
@@ -11020,7 +11183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -11033,7 +11196,7 @@
       <c r="D3" s="23"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -11047,7 +11210,7 @@
       <c r="N4" s="21"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -11060,7 +11223,7 @@
       <c r="D5" s="23"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -11082,7 +11245,7 @@
       </c>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -11104,7 +11267,7 @@
       </c>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -11143,7 +11306,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -11182,7 +11345,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -11221,7 +11384,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>47</v>
       </c>
@@ -11265,7 +11428,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>46</v>
       </c>
@@ -11306,7 +11469,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>45</v>
       </c>
@@ -11329,7 +11492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18">
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -11368,7 +11531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -11407,7 +11570,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -11446,7 +11609,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -11485,7 +11648,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -11524,7 +11687,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -11563,7 +11726,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -11602,7 +11765,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -11643,27 +11806,27 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D23" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D24" s="17" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D20" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D23" r:id="rId8"/>
-    <hyperlink ref="D24" r:id="rId9"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId10"/>
@@ -11671,14 +11834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11686,24 +11849,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="10.6640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>162</v>
       </c>
@@ -11712,13 +11873,13 @@
         <v>4.3333000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K2" s="32">
         <f>K1*180/PI()</f>
         <v>2.4827980136403962</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>121</v>
       </c>
@@ -11732,7 +11893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>136</v>
       </c>
@@ -11744,7 +11905,7 @@
       </c>
       <c r="D4" s="36"/>
     </row>
-    <row r="5" spans="1:11" ht="60">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>131</v>
       </c>
@@ -11756,7 +11917,7 @@
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>115</v>
       </c>
@@ -11768,7 +11929,7 @@
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>117</v>
       </c>
@@ -11782,7 +11943,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>141</v>
       </c>
@@ -11796,7 +11957,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>151</v>
       </c>
@@ -11810,7 +11971,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>233</v>
       </c>
@@ -11822,7 +11983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>148</v>
       </c>
@@ -11832,7 +11993,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="35"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>155</v>
       </c>
@@ -11842,7 +12003,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="35"/>
     </row>
-    <row r="13" spans="1:11" ht="120">
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>149</v>
       </c>
@@ -11856,7 +12017,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>159</v>
       </c>
@@ -11866,7 +12027,7 @@
       <c r="C14" s="37"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="75">
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>228</v>
       </c>
@@ -11880,7 +12041,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>145</v>
       </c>
@@ -11894,7 +12055,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>119</v>
       </c>
@@ -11908,7 +12069,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>124</v>
       </c>
@@ -11922,7 +12083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>140</v>
       </c>
@@ -11936,7 +12097,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
         <v>37</v>
       </c>
@@ -11948,7 +12109,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="48">
+    <row r="21" spans="1:5" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>249</v>
       </c>
@@ -11960,7 +12121,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>263</v>
       </c>
@@ -11972,7 +12133,7 @@
       </c>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
         <v>148</v>
       </c>
@@ -11984,7 +12145,7 @@
       </c>
       <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>71</v>
       </c>
@@ -11996,25 +12157,25 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="57"/>
       <c r="B28" s="58" t="s">
         <v>165</v>
@@ -12026,7 +12187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="35" t="s">
         <v>163</v>
@@ -12038,7 +12199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="103"/>
       <c r="B30" s="103" t="s">
         <v>287</v>
@@ -12053,7 +12214,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="35" t="s">
         <v>285</v>
@@ -12065,48 +12226,48 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1"/>
-    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -12114,22 +12275,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AD56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="21" max="21" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="11" max="11" width="1.44140625" customWidth="1"/>
+    <col min="21" max="21" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="8.25" customHeight="1"/>
-    <row r="2" spans="2:30">
+    <row r="1" spans="2:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" s="87" t="s">
         <v>45</v>
       </c>
@@ -12188,7 +12349,7 @@
       <c r="AC2" s="79"/>
       <c r="AD2" s="80"/>
     </row>
-    <row r="3" spans="2:30">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="91">
         <v>0</v>
       </c>
@@ -12247,7 +12408,7 @@
       <c r="AC3" s="81"/>
       <c r="AD3" s="82"/>
     </row>
-    <row r="4" spans="2:30">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="83"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -12276,7 +12437,7 @@
       <c r="AC4" s="81"/>
       <c r="AD4" s="82"/>
     </row>
-    <row r="5" spans="2:30">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="83"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
@@ -12305,7 +12466,7 @@
       <c r="AC5" s="81"/>
       <c r="AD5" s="82"/>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="83"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
@@ -12334,7 +12495,7 @@
       <c r="AC6" s="81"/>
       <c r="AD6" s="82"/>
     </row>
-    <row r="7" spans="2:30">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="83"/>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
@@ -12363,7 +12524,7 @@
       <c r="AC7" s="81"/>
       <c r="AD7" s="82"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="83"/>
       <c r="C8" s="81"/>
       <c r="D8" s="81"/>
@@ -12392,7 +12553,7 @@
       <c r="AC8" s="81"/>
       <c r="AD8" s="82"/>
     </row>
-    <row r="9" spans="2:30">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="83"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
@@ -12421,7 +12582,7 @@
       <c r="AC9" s="81"/>
       <c r="AD9" s="82"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" s="83"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
@@ -12450,7 +12611,7 @@
       <c r="AC10" s="81"/>
       <c r="AD10" s="82"/>
     </row>
-    <row r="11" spans="2:30">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="83"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
@@ -12479,7 +12640,7 @@
       <c r="AC11" s="81"/>
       <c r="AD11" s="82"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" s="83"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
@@ -12508,7 +12669,7 @@
       <c r="AC12" s="81"/>
       <c r="AD12" s="82"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B13" s="83"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
@@ -12537,7 +12698,7 @@
       <c r="AC13" s="81"/>
       <c r="AD13" s="82"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
@@ -12566,8 +12727,8 @@
       <c r="AC14" s="85"/>
       <c r="AD14" s="86"/>
     </row>
-    <row r="15" spans="2:30" ht="7.5" customHeight="1"/>
-    <row r="16" spans="2:30">
+    <row r="15" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B16" s="87" t="s">
         <v>45</v>
       </c>
@@ -12607,7 +12768,7 @@
       <c r="S16" s="79"/>
       <c r="T16" s="80"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="91">
         <v>0</v>
       </c>
@@ -12647,7 +12808,7 @@
       <c r="S17" s="81"/>
       <c r="T17" s="82"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="83"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
@@ -12667,7 +12828,7 @@
       <c r="S18" s="81"/>
       <c r="T18" s="82"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="83"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
@@ -12687,7 +12848,7 @@
       <c r="S19" s="81"/>
       <c r="T19" s="82"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="83"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -12707,7 +12868,7 @@
       <c r="S20" s="81"/>
       <c r="T20" s="82"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="83"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -12727,7 +12888,7 @@
       <c r="S21" s="81"/>
       <c r="T21" s="82"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="83"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -12747,7 +12908,7 @@
       <c r="S22" s="81"/>
       <c r="T22" s="82"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="83"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -12767,7 +12928,7 @@
       <c r="S23" s="81"/>
       <c r="T23" s="82"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="83"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -12787,7 +12948,7 @@
       <c r="S24" s="81"/>
       <c r="T24" s="82"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="83"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -12807,7 +12968,7 @@
       <c r="S25" s="81"/>
       <c r="T25" s="82"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="83"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -12827,7 +12988,7 @@
       <c r="S26" s="81"/>
       <c r="T26" s="82"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="83"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -12847,7 +13008,7 @@
       <c r="S27" s="81"/>
       <c r="T27" s="82"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="84"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
@@ -12867,8 +13028,8 @@
       <c r="S28" s="85"/>
       <c r="T28" s="86"/>
     </row>
-    <row r="29" spans="2:20" ht="7.5" customHeight="1"/>
-    <row r="30" spans="2:20">
+    <row r="29" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="96" t="s">
         <v>45</v>
       </c>
@@ -12889,7 +13050,7 @@
       <c r="I30" s="79"/>
       <c r="J30" s="80"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="97">
         <v>0.5</v>
       </c>
@@ -12910,7 +13071,7 @@
       <c r="I31" s="81"/>
       <c r="J31" s="82"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="83"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
@@ -12921,7 +13082,7 @@
       <c r="I32" s="81"/>
       <c r="J32" s="82"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="83"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
@@ -12932,7 +13093,7 @@
       <c r="I33" s="81"/>
       <c r="J33" s="82"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="83"/>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
@@ -12943,7 +13104,7 @@
       <c r="I34" s="81"/>
       <c r="J34" s="82"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="83"/>
       <c r="C35" s="81"/>
       <c r="D35" s="81"/>
@@ -12954,7 +13115,7 @@
       <c r="I35" s="81"/>
       <c r="J35" s="82"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="83"/>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
@@ -12965,7 +13126,7 @@
       <c r="I36" s="81"/>
       <c r="J36" s="82"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="83"/>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
@@ -12976,7 +13137,7 @@
       <c r="I37" s="81"/>
       <c r="J37" s="82"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="83"/>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
@@ -12987,7 +13148,7 @@
       <c r="I38" s="81"/>
       <c r="J38" s="82"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="83"/>
       <c r="C39" s="81"/>
       <c r="D39" s="81"/>
@@ -12998,7 +13159,7 @@
       <c r="I39" s="81"/>
       <c r="J39" s="82"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="83"/>
       <c r="C40" s="81"/>
       <c r="D40" s="81"/>
@@ -13009,7 +13170,7 @@
       <c r="I40" s="81"/>
       <c r="J40" s="82"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="83"/>
       <c r="C41" s="81"/>
       <c r="D41" s="81"/>
@@ -13020,7 +13181,7 @@
       <c r="I41" s="81"/>
       <c r="J41" s="82"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="84"/>
       <c r="C42" s="85"/>
       <c r="D42" s="85"/>
@@ -13031,8 +13192,8 @@
       <c r="I42" s="85"/>
       <c r="J42" s="86"/>
     </row>
-    <row r="43" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="44" spans="2:10">
+    <row r="43" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="96" t="s">
         <v>45</v>
       </c>
@@ -13055,7 +13216,7 @@
       <c r="I44" s="79"/>
       <c r="J44" s="80"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="97">
         <v>0.5</v>
       </c>
@@ -13076,7 +13237,7 @@
       <c r="I45" s="81"/>
       <c r="J45" s="82"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="83"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
@@ -13087,7 +13248,7 @@
       <c r="I46" s="81"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="83"/>
       <c r="C47" s="81"/>
       <c r="D47" s="81" t="s">
@@ -13102,7 +13263,7 @@
       <c r="I47" s="81"/>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="83"/>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
@@ -13113,7 +13274,7 @@
       <c r="I48" s="81"/>
       <c r="J48" s="82"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="83" t="s">
         <v>276</v>
       </c>
@@ -13126,7 +13287,7 @@
       <c r="I49" s="81"/>
       <c r="J49" s="82"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="83"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
@@ -13139,7 +13300,7 @@
       <c r="I50" s="81"/>
       <c r="J50" s="82"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="83"/>
       <c r="C51" s="81"/>
       <c r="D51" s="81"/>
@@ -13150,7 +13311,7 @@
       <c r="I51" s="81"/>
       <c r="J51" s="82"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="83"/>
       <c r="C52" s="81"/>
       <c r="D52" s="81"/>
@@ -13161,7 +13322,7 @@
       <c r="I52" s="81"/>
       <c r="J52" s="82"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="83"/>
       <c r="C53" s="81"/>
       <c r="D53" s="81"/>
@@ -13172,7 +13333,7 @@
       <c r="I53" s="81"/>
       <c r="J53" s="82"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="83"/>
       <c r="C54" s="81"/>
       <c r="D54" s="81" t="s">
@@ -13187,7 +13348,7 @@
       <c r="I54" s="81"/>
       <c r="J54" s="82"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="83"/>
       <c r="C55" s="81"/>
       <c r="D55" s="81"/>
@@ -13198,7 +13359,7 @@
       <c r="I55" s="81"/>
       <c r="J55" s="82"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="84"/>
       <c r="C56" s="85"/>
       <c r="D56" s="85"/>
